--- a/LakePowellNewBathymetry/Lake_Powell_Area_Capacity_Table_Report_FINAL.xlsx
+++ b/LakePowellNewBathymetry/Lake_Powell_Area_Capacity_Table_Report_FINAL.xlsx
@@ -8,19 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\LakePowellNewBathymetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0116EE-7ED4-49CF-9765-8950FD183016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F568D2F-7AC6-4E8C-969D-BB3FF87BD6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
     <sheet name="2017Bathymetry" sheetId="2" r:id="rId2"/>
     <sheet name="Pre2017Bathymetry" sheetId="4" r:id="rId3"/>
-    <sheet name="Compare" sheetId="5" r:id="rId4"/>
+    <sheet name="BathymetryCompare" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>EQ. NUMBER</t>
   </si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>Volume (million acre-feet)</t>
+  </si>
+  <si>
+    <t>Compare Pre 2017 to 2017 data as difference in active storage and difference in area</t>
+  </si>
+  <si>
+    <t>BathymetryCompare</t>
   </si>
 </sst>
 </file>
@@ -9260,7571 +9263,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ReadMe-Directions"/>
-      <sheetName val="Versions"/>
-      <sheetName val="Master"/>
-      <sheetName val="Master-LawOfRiver"/>
-      <sheetName val="Master-Plots"/>
-      <sheetName val="SplitInflowPlot"/>
-      <sheetName val="SplitInflow"/>
-      <sheetName val="MandatoryConservation"/>
-      <sheetName val="HydrologicScenarios"/>
-      <sheetName val="PowellReleaseTemperature"/>
-      <sheetName val="Powell-Elevation-Area"/>
-      <sheetName val="Mead-Elevation-Area"/>
-      <sheetName val="CellType"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10">
-        <row r="5">
-          <cell r="A5">
-            <v>3370</v>
-          </cell>
-          <cell r="C5">
-            <v>1895000</v>
-          </cell>
-          <cell r="D5">
-            <v>20303</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>3370.5</v>
-          </cell>
-          <cell r="C6">
-            <v>1905173.99</v>
-          </cell>
-          <cell r="D6">
-            <v>20392.95</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>3371</v>
-          </cell>
-          <cell r="C7">
-            <v>1915392.95</v>
-          </cell>
-          <cell r="D7">
-            <v>20482.900000000001</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>3371.5</v>
-          </cell>
-          <cell r="C8">
-            <v>1925656.89</v>
-          </cell>
-          <cell r="D8">
-            <v>20572.849999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>3372</v>
-          </cell>
-          <cell r="C9">
-            <v>1935965.8</v>
-          </cell>
-          <cell r="D9">
-            <v>20662.8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>3372.5</v>
-          </cell>
-          <cell r="C10">
-            <v>1946319.69</v>
-          </cell>
-          <cell r="D10">
-            <v>20752.75</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>3373</v>
-          </cell>
-          <cell r="C11">
-            <v>1956718.55</v>
-          </cell>
-          <cell r="D11">
-            <v>20842.7</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>3373.5</v>
-          </cell>
-          <cell r="C12">
-            <v>1967162.39</v>
-          </cell>
-          <cell r="D12">
-            <v>20932.650000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>3374</v>
-          </cell>
-          <cell r="C13">
-            <v>1977651.2000004</v>
-          </cell>
-          <cell r="D13">
-            <v>21022.6</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>3374.5</v>
-          </cell>
-          <cell r="C14">
-            <v>1988184.99</v>
-          </cell>
-          <cell r="D14">
-            <v>21112.55</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>3375</v>
-          </cell>
-          <cell r="C15">
-            <v>1998763.75</v>
-          </cell>
-          <cell r="D15">
-            <v>21202.5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>3375.5</v>
-          </cell>
-          <cell r="C16">
-            <v>2009387.49</v>
-          </cell>
-          <cell r="D16">
-            <v>21292.45</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>3376</v>
-          </cell>
-          <cell r="C17">
-            <v>2020056.2</v>
-          </cell>
-          <cell r="D17">
-            <v>21382.400000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>3376.5</v>
-          </cell>
-          <cell r="C18">
-            <v>2030769.8900000001</v>
-          </cell>
-          <cell r="D18">
-            <v>21472.35</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>3377</v>
-          </cell>
-          <cell r="C19">
-            <v>2041528.55</v>
-          </cell>
-          <cell r="D19">
-            <v>21562.3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>3377.5</v>
-          </cell>
-          <cell r="C20">
-            <v>2052332.19</v>
-          </cell>
-          <cell r="D20">
-            <v>21652.25</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>3378</v>
-          </cell>
-          <cell r="C21">
-            <v>2063180.8</v>
-          </cell>
-          <cell r="D21">
-            <v>21742.2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>3378.5</v>
-          </cell>
-          <cell r="C22">
-            <v>2074074.3900000001</v>
-          </cell>
-          <cell r="D22">
-            <v>21832.15</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>3379</v>
-          </cell>
-          <cell r="C23">
-            <v>2085012.95</v>
-          </cell>
-          <cell r="D23">
-            <v>21922.1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>3379.5</v>
-          </cell>
-          <cell r="C24">
-            <v>2095996.49</v>
-          </cell>
-          <cell r="D24">
-            <v>22012.05</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>3380</v>
-          </cell>
-          <cell r="C25">
-            <v>2107025</v>
-          </cell>
-          <cell r="D25">
-            <v>22102</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>3380.5</v>
-          </cell>
-          <cell r="C26">
-            <v>2118100.75</v>
-          </cell>
-          <cell r="D26">
-            <v>22201</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>3381</v>
-          </cell>
-          <cell r="C27">
-            <v>2129226</v>
-          </cell>
-          <cell r="D27">
-            <v>22300</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>3381.5</v>
-          </cell>
-          <cell r="C28">
-            <v>2140400.75</v>
-          </cell>
-          <cell r="D28">
-            <v>22399</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>3382</v>
-          </cell>
-          <cell r="C29">
-            <v>2151625</v>
-          </cell>
-          <cell r="D29">
-            <v>22498</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>3382.5</v>
-          </cell>
-          <cell r="C30">
-            <v>2162898.75</v>
-          </cell>
-          <cell r="D30">
-            <v>22597</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>3383</v>
-          </cell>
-          <cell r="C31">
-            <v>2174222</v>
-          </cell>
-          <cell r="D31">
-            <v>22696</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>3383.5</v>
-          </cell>
-          <cell r="C32">
-            <v>2185594.75</v>
-          </cell>
-          <cell r="D32">
-            <v>22795</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>3384</v>
-          </cell>
-          <cell r="C33">
-            <v>2197017</v>
-          </cell>
-          <cell r="D33">
-            <v>22894</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>3384.5</v>
-          </cell>
-          <cell r="C34">
-            <v>2208488.75</v>
-          </cell>
-          <cell r="D34">
-            <v>22993</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>3385</v>
-          </cell>
-          <cell r="C35">
-            <v>2220010</v>
-          </cell>
-          <cell r="D35">
-            <v>23092</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>3385.5</v>
-          </cell>
-          <cell r="C36">
-            <v>2231580.75</v>
-          </cell>
-          <cell r="D36">
-            <v>23191</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>3386</v>
-          </cell>
-          <cell r="C37">
-            <v>2243201</v>
-          </cell>
-          <cell r="D37">
-            <v>23290</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>3386.5</v>
-          </cell>
-          <cell r="C38">
-            <v>2254870.75</v>
-          </cell>
-          <cell r="D38">
-            <v>23389</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>3387</v>
-          </cell>
-          <cell r="C39">
-            <v>2266590</v>
-          </cell>
-          <cell r="D39">
-            <v>23488</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>3387.5</v>
-          </cell>
-          <cell r="C40">
-            <v>2278358.75</v>
-          </cell>
-          <cell r="D40">
-            <v>23587</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>3388</v>
-          </cell>
-          <cell r="C41">
-            <v>2290177</v>
-          </cell>
-          <cell r="D41">
-            <v>23686</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>3388.5</v>
-          </cell>
-          <cell r="C42">
-            <v>2302044.75</v>
-          </cell>
-          <cell r="D42">
-            <v>23785</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>3389</v>
-          </cell>
-          <cell r="C43">
-            <v>2313962</v>
-          </cell>
-          <cell r="D43">
-            <v>23884</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>3389.5</v>
-          </cell>
-          <cell r="C44">
-            <v>2325928.75</v>
-          </cell>
-          <cell r="D44">
-            <v>23983</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>3390</v>
-          </cell>
-          <cell r="C45">
-            <v>2337945</v>
-          </cell>
-          <cell r="D45">
-            <v>24082</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>3390.5</v>
-          </cell>
-          <cell r="C46">
-            <v>2350010.75</v>
-          </cell>
-          <cell r="D46">
-            <v>24181</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>3391</v>
-          </cell>
-          <cell r="C47">
-            <v>2362126</v>
-          </cell>
-          <cell r="D47">
-            <v>24280</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>3391.5</v>
-          </cell>
-          <cell r="C48">
-            <v>2374290.75</v>
-          </cell>
-          <cell r="D48">
-            <v>24379</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>3392</v>
-          </cell>
-          <cell r="C49">
-            <v>2386505</v>
-          </cell>
-          <cell r="D49">
-            <v>24478</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>3392.5</v>
-          </cell>
-          <cell r="C50">
-            <v>2398768.75</v>
-          </cell>
-          <cell r="D50">
-            <v>24577</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>3393</v>
-          </cell>
-          <cell r="C51">
-            <v>2411082</v>
-          </cell>
-          <cell r="D51">
-            <v>24676</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>3393.5</v>
-          </cell>
-          <cell r="C52">
-            <v>2423444.75</v>
-          </cell>
-          <cell r="D52">
-            <v>24775</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>3394</v>
-          </cell>
-          <cell r="C53">
-            <v>2435857</v>
-          </cell>
-          <cell r="D53">
-            <v>24874.000000100001</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>3394.5</v>
-          </cell>
-          <cell r="C54">
-            <v>2448318.75</v>
-          </cell>
-          <cell r="D54">
-            <v>24973.000000100001</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>3395</v>
-          </cell>
-          <cell r="C55">
-            <v>2460830</v>
-          </cell>
-          <cell r="D55">
-            <v>25071.999999899999</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>3395.5</v>
-          </cell>
-          <cell r="C56">
-            <v>2473390.75</v>
-          </cell>
-          <cell r="D56">
-            <v>25170.999999899999</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>3396</v>
-          </cell>
-          <cell r="C57">
-            <v>2486001</v>
-          </cell>
-          <cell r="D57">
-            <v>25270</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>3396.5</v>
-          </cell>
-          <cell r="C58">
-            <v>2498660.75</v>
-          </cell>
-          <cell r="D58">
-            <v>25369</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>3397</v>
-          </cell>
-          <cell r="C59">
-            <v>2511370</v>
-          </cell>
-          <cell r="D59">
-            <v>25468.000000100001</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>3397.5</v>
-          </cell>
-          <cell r="C60">
-            <v>2524128.75</v>
-          </cell>
-          <cell r="D60">
-            <v>25567.000000100001</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>3398</v>
-          </cell>
-          <cell r="C61">
-            <v>2536937</v>
-          </cell>
-          <cell r="D61">
-            <v>25665.999999899999</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>3398.5</v>
-          </cell>
-          <cell r="C62">
-            <v>2549794.75</v>
-          </cell>
-          <cell r="D62">
-            <v>25765</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>3399</v>
-          </cell>
-          <cell r="C63">
-            <v>2562702</v>
-          </cell>
-          <cell r="D63">
-            <v>25864</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>3399.5</v>
-          </cell>
-          <cell r="C64">
-            <v>2575658.75</v>
-          </cell>
-          <cell r="D64">
-            <v>25963.000000100001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>3400</v>
-          </cell>
-          <cell r="C65">
-            <v>2588665</v>
-          </cell>
-          <cell r="D65">
-            <v>26062.000000100001</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>3400.5</v>
-          </cell>
-          <cell r="C66">
-            <v>2601720.89</v>
-          </cell>
-          <cell r="D66">
-            <v>26161.5700001</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>3401</v>
-          </cell>
-          <cell r="C67">
-            <v>2614826.5699999998</v>
-          </cell>
-          <cell r="D67">
-            <v>26261.15</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>3401.5</v>
-          </cell>
-          <cell r="C68">
-            <v>2627982.04</v>
-          </cell>
-          <cell r="D68">
-            <v>26360.720000000001</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>3402</v>
-          </cell>
-          <cell r="C69">
-            <v>2641187.2999999998</v>
-          </cell>
-          <cell r="D69">
-            <v>26460.3000001</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>3402.5</v>
-          </cell>
-          <cell r="C70">
-            <v>2654442.34</v>
-          </cell>
-          <cell r="D70">
-            <v>26559.8700001</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>3403</v>
-          </cell>
-          <cell r="C71">
-            <v>2667747.17</v>
-          </cell>
-          <cell r="D71">
-            <v>26659.45</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>3403.5</v>
-          </cell>
-          <cell r="C72">
-            <v>2681101.79</v>
-          </cell>
-          <cell r="D72">
-            <v>26759.02</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>3404</v>
-          </cell>
-          <cell r="C73">
-            <v>2694506.2</v>
-          </cell>
-          <cell r="D73">
-            <v>26858.600000099999</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>3404.5</v>
-          </cell>
-          <cell r="C74">
-            <v>2707960.39</v>
-          </cell>
-          <cell r="D74">
-            <v>26958.170000099999</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>3405</v>
-          </cell>
-          <cell r="C75">
-            <v>2721464.3700040001</v>
-          </cell>
-          <cell r="D75">
-            <v>27057.75</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>3405.5</v>
-          </cell>
-          <cell r="C76">
-            <v>2735018.14</v>
-          </cell>
-          <cell r="D76">
-            <v>27157.32</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>3406</v>
-          </cell>
-          <cell r="C77">
-            <v>2748621.700003</v>
-          </cell>
-          <cell r="D77">
-            <v>27256.900000099999</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>3406.5</v>
-          </cell>
-          <cell r="C78">
-            <v>2762275.0400010003</v>
-          </cell>
-          <cell r="D78">
-            <v>27356.470000099998</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>3407</v>
-          </cell>
-          <cell r="C79">
-            <v>2775978.1699990002</v>
-          </cell>
-          <cell r="D79">
-            <v>27456.049999899999</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>3407.5</v>
-          </cell>
-          <cell r="C80">
-            <v>2789731.0899970001</v>
-          </cell>
-          <cell r="D80">
-            <v>27555.619999899998</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>3408</v>
-          </cell>
-          <cell r="C81">
-            <v>2803533.8000019998</v>
-          </cell>
-          <cell r="D81">
-            <v>27655.200000100001</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>3408.5</v>
-          </cell>
-          <cell r="C82">
-            <v>2817386.2900020001</v>
-          </cell>
-          <cell r="D82">
-            <v>27754.770000100001</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>3409</v>
-          </cell>
-          <cell r="C83">
-            <v>2831288.5700010001</v>
-          </cell>
-          <cell r="D83">
-            <v>27854.349999900001</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>3409.5</v>
-          </cell>
-          <cell r="C84">
-            <v>2845240.64</v>
-          </cell>
-          <cell r="D84">
-            <v>27953.919999900001</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>3410</v>
-          </cell>
-          <cell r="C85">
-            <v>2859242.4999989998</v>
-          </cell>
-          <cell r="D85">
-            <v>28053.5</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>3410.5</v>
-          </cell>
-          <cell r="C86">
-            <v>2873294.1400009999</v>
-          </cell>
-          <cell r="D86">
-            <v>28153.0700001</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>3411</v>
-          </cell>
-          <cell r="C87">
-            <v>2887395.5700019998</v>
-          </cell>
-          <cell r="D87">
-            <v>28252.649999900001</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>3411.5</v>
-          </cell>
-          <cell r="C88">
-            <v>2901546.79</v>
-          </cell>
-          <cell r="D88">
-            <v>28352.2199999</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>3412</v>
-          </cell>
-          <cell r="C89">
-            <v>2915747.8</v>
-          </cell>
-          <cell r="D89">
-            <v>28451.8</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>3412.5</v>
-          </cell>
-          <cell r="C90">
-            <v>2929998.59</v>
-          </cell>
-          <cell r="D90">
-            <v>28551.37</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>3413</v>
-          </cell>
-          <cell r="C91">
-            <v>2944299.17</v>
-          </cell>
-          <cell r="D91">
-            <v>28650.9499999</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>3413.5</v>
-          </cell>
-          <cell r="C92">
-            <v>2958649.54</v>
-          </cell>
-          <cell r="D92">
-            <v>28750.5199999</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>3414</v>
-          </cell>
-          <cell r="C93">
-            <v>2973049.7</v>
-          </cell>
-          <cell r="D93">
-            <v>28850.1</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>3414.5</v>
-          </cell>
-          <cell r="C94">
-            <v>2987499.6399999997</v>
-          </cell>
-          <cell r="D94">
-            <v>28949.67</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>3415</v>
-          </cell>
-          <cell r="C95">
-            <v>3001999.37</v>
-          </cell>
-          <cell r="D95">
-            <v>29049.249999899999</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>3415.5</v>
-          </cell>
-          <cell r="C96">
-            <v>3016548.8899999997</v>
-          </cell>
-          <cell r="D96">
-            <v>29148.819999899999</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>3416</v>
-          </cell>
-          <cell r="C97">
-            <v>3031148.2</v>
-          </cell>
-          <cell r="D97">
-            <v>29248.400000000001</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>3416.5</v>
-          </cell>
-          <cell r="C98">
-            <v>3045797.29</v>
-          </cell>
-          <cell r="D98">
-            <v>29347.97</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>3417</v>
-          </cell>
-          <cell r="C99">
-            <v>3060496.17</v>
-          </cell>
-          <cell r="D99">
-            <v>29447.549999899999</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>3417.5</v>
-          </cell>
-          <cell r="C100">
-            <v>3075244.84</v>
-          </cell>
-          <cell r="D100">
-            <v>29547.119999899998</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>3418</v>
-          </cell>
-          <cell r="C101">
-            <v>3090043.3</v>
-          </cell>
-          <cell r="D101">
-            <v>29646.7</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>3418.5</v>
-          </cell>
-          <cell r="C102">
-            <v>3104891.54</v>
-          </cell>
-          <cell r="D102">
-            <v>29746.27</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>3419</v>
-          </cell>
-          <cell r="C103">
-            <v>3119789.5700000003</v>
-          </cell>
-          <cell r="D103">
-            <v>29845.849999900001</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>3419.5</v>
-          </cell>
-          <cell r="C104">
-            <v>3134737.3899999997</v>
-          </cell>
-          <cell r="D104">
-            <v>29945.419999900001</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>3420</v>
-          </cell>
-          <cell r="C105">
-            <v>3149735</v>
-          </cell>
-          <cell r="D105">
-            <v>30045</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>3420.5</v>
-          </cell>
-          <cell r="C106">
-            <v>3164786.59</v>
-          </cell>
-          <cell r="D106">
-            <v>30161.350000099999</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>3421</v>
-          </cell>
-          <cell r="C107">
-            <v>3179896.35</v>
-          </cell>
-          <cell r="D107">
-            <v>30277.700000100001</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>3421.5</v>
-          </cell>
-          <cell r="C108">
-            <v>3195064.29</v>
-          </cell>
-          <cell r="D108">
-            <v>30394.049999899999</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>3422</v>
-          </cell>
-          <cell r="C109">
-            <v>3210290.4</v>
-          </cell>
-          <cell r="D109">
-            <v>30510.400000000001</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>3422.5</v>
-          </cell>
-          <cell r="C110">
-            <v>3225574.69</v>
-          </cell>
-          <cell r="D110">
-            <v>30626.750000100001</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>3423</v>
-          </cell>
-          <cell r="C111">
-            <v>3240917.15</v>
-          </cell>
-          <cell r="D111">
-            <v>30743.099999900001</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>3423.5</v>
-          </cell>
-          <cell r="C112">
-            <v>3256317.79</v>
-          </cell>
-          <cell r="D112">
-            <v>30859.4499999</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>3424</v>
-          </cell>
-          <cell r="C113">
-            <v>3271776.6</v>
-          </cell>
-          <cell r="D113">
-            <v>30975.8</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>3424.5</v>
-          </cell>
-          <cell r="C114">
-            <v>3287293.59</v>
-          </cell>
-          <cell r="D114">
-            <v>31092.150000099999</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>3425</v>
-          </cell>
-          <cell r="C115">
-            <v>3302868.75</v>
-          </cell>
-          <cell r="D115">
-            <v>31208.499999899999</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>3425.5</v>
-          </cell>
-          <cell r="C116">
-            <v>3318502.09</v>
-          </cell>
-          <cell r="D116">
-            <v>31324.849999900001</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>3426</v>
-          </cell>
-          <cell r="C117">
-            <v>3334193.6</v>
-          </cell>
-          <cell r="D117">
-            <v>31441.200000000001</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>3426.5</v>
-          </cell>
-          <cell r="C118">
-            <v>3349943.29</v>
-          </cell>
-          <cell r="D118">
-            <v>31557.5500001</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>3427</v>
-          </cell>
-          <cell r="C119">
-            <v>3365751.15</v>
-          </cell>
-          <cell r="D119">
-            <v>31673.899999900001</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>3427.5</v>
-          </cell>
-          <cell r="C120">
-            <v>3381617.19</v>
-          </cell>
-          <cell r="D120">
-            <v>31790.25</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>3428</v>
-          </cell>
-          <cell r="C121">
-            <v>3397541.4</v>
-          </cell>
-          <cell r="D121">
-            <v>31906.6</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>3428.5</v>
-          </cell>
-          <cell r="C122">
-            <v>3413523.79</v>
-          </cell>
-          <cell r="D122">
-            <v>32022.950000100001</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>3429</v>
-          </cell>
-          <cell r="C123">
-            <v>3429564.35</v>
-          </cell>
-          <cell r="D123">
-            <v>32139.299999899999</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>3429.5</v>
-          </cell>
-          <cell r="C124">
-            <v>3445663.09</v>
-          </cell>
-          <cell r="D124">
-            <v>32255.65</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>3430</v>
-          </cell>
-          <cell r="C125">
-            <v>3461820</v>
-          </cell>
-          <cell r="D125">
-            <v>32372</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>3430.5</v>
-          </cell>
-          <cell r="C126">
-            <v>3478035.09</v>
-          </cell>
-          <cell r="D126">
-            <v>32488.350000099999</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>3431</v>
-          </cell>
-          <cell r="C127">
-            <v>3494308.35</v>
-          </cell>
-          <cell r="D127">
-            <v>32604.6999999</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>3431.5</v>
-          </cell>
-          <cell r="C128">
-            <v>3510639.79</v>
-          </cell>
-          <cell r="D128">
-            <v>32721.05</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>3432</v>
-          </cell>
-          <cell r="C129">
-            <v>3527029.4</v>
-          </cell>
-          <cell r="D129">
-            <v>32837.4</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>3432.5</v>
-          </cell>
-          <cell r="C130">
-            <v>3543477.19</v>
-          </cell>
-          <cell r="D130">
-            <v>32953.750000100001</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>3433</v>
-          </cell>
-          <cell r="C131">
-            <v>3559983.15</v>
-          </cell>
-          <cell r="D131">
-            <v>33070.099999899998</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>3433.5</v>
-          </cell>
-          <cell r="C132">
-            <v>3576547.29</v>
-          </cell>
-          <cell r="D132">
-            <v>33186.449999999997</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>3434</v>
-          </cell>
-          <cell r="C133">
-            <v>3593169.6</v>
-          </cell>
-          <cell r="D133">
-            <v>33302.800000000003</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>3434.5</v>
-          </cell>
-          <cell r="C134">
-            <v>3609850.09</v>
-          </cell>
-          <cell r="D134">
-            <v>33419.150000100002</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>3435</v>
-          </cell>
-          <cell r="C135">
-            <v>3626588.75</v>
-          </cell>
-          <cell r="D135">
-            <v>33535.499999899999</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>3435.5</v>
-          </cell>
-          <cell r="C136">
-            <v>3643385.59</v>
-          </cell>
-          <cell r="D136">
-            <v>33651.85</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>3436</v>
-          </cell>
-          <cell r="C137">
-            <v>3660240.6</v>
-          </cell>
-          <cell r="D137">
-            <v>33768.199999999997</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>3436.5</v>
-          </cell>
-          <cell r="C138">
-            <v>3677153.79</v>
-          </cell>
-          <cell r="D138">
-            <v>33884.550000099996</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>3437</v>
-          </cell>
-          <cell r="C139">
-            <v>3694125.15</v>
-          </cell>
-          <cell r="D139">
-            <v>34000.899999900001</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>3437.5</v>
-          </cell>
-          <cell r="C140">
-            <v>3711154.69</v>
-          </cell>
-          <cell r="D140">
-            <v>34117.25</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>3438</v>
-          </cell>
-          <cell r="C141">
-            <v>3728242.4</v>
-          </cell>
-          <cell r="D141">
-            <v>34233.599999999999</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>3438.5</v>
-          </cell>
-          <cell r="C142">
-            <v>3745388.29</v>
-          </cell>
-          <cell r="D142">
-            <v>34349.950000099998</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>3439</v>
-          </cell>
-          <cell r="C143">
-            <v>3762592.35</v>
-          </cell>
-          <cell r="D143">
-            <v>34466.299999900002</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>3439.5</v>
-          </cell>
-          <cell r="C144">
-            <v>3779854.59</v>
-          </cell>
-          <cell r="D144">
-            <v>34582.65</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>3440</v>
-          </cell>
-          <cell r="C145">
-            <v>3797175</v>
-          </cell>
-          <cell r="D145">
-            <v>34699</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>3440.5</v>
-          </cell>
-          <cell r="C146">
-            <v>3814559.8899999997</v>
-          </cell>
-          <cell r="D146">
-            <v>34840.549999900002</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>3441</v>
-          </cell>
-          <cell r="C147">
-            <v>3832015.55</v>
-          </cell>
-          <cell r="D147">
-            <v>34982.1</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>3441.5</v>
-          </cell>
-          <cell r="C148">
-            <v>3849541.99</v>
-          </cell>
-          <cell r="D148">
-            <v>35123.650000100002</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>3442</v>
-          </cell>
-          <cell r="C149">
-            <v>3867139.2</v>
-          </cell>
-          <cell r="D149">
-            <v>35265.199999900004</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>3442.5</v>
-          </cell>
-          <cell r="C150">
-            <v>3884807.19</v>
-          </cell>
-          <cell r="D150">
-            <v>35406.75</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>3443</v>
-          </cell>
-          <cell r="C151">
-            <v>3902545.95</v>
-          </cell>
-          <cell r="D151">
-            <v>35548.299999900002</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>3443.5</v>
-          </cell>
-          <cell r="C152">
-            <v>3920355.49</v>
-          </cell>
-          <cell r="D152">
-            <v>35689.85</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>3444</v>
-          </cell>
-          <cell r="C153">
-            <v>3938235.8</v>
-          </cell>
-          <cell r="D153">
-            <v>35831.400000100002</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>3444.5</v>
-          </cell>
-          <cell r="C154">
-            <v>3956186.8899999997</v>
-          </cell>
-          <cell r="D154">
-            <v>35972.949999999997</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>3445</v>
-          </cell>
-          <cell r="C155">
-            <v>3974208.75</v>
-          </cell>
-          <cell r="D155">
-            <v>36114.500000100001</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>3445.5</v>
-          </cell>
-          <cell r="C156">
-            <v>3992301.39</v>
-          </cell>
-          <cell r="D156">
-            <v>36256.049999900002</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>3446</v>
-          </cell>
-          <cell r="C157">
-            <v>4010464.8</v>
-          </cell>
-          <cell r="D157">
-            <v>36397.599999999999</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>3446.5</v>
-          </cell>
-          <cell r="C158">
-            <v>4028698.99</v>
-          </cell>
-          <cell r="D158">
-            <v>36539.150000100002</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>3447</v>
-          </cell>
-          <cell r="C159">
-            <v>4047003.95</v>
-          </cell>
-          <cell r="D159">
-            <v>36680.699999999997</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>3447.5</v>
-          </cell>
-          <cell r="C160">
-            <v>4065379.69</v>
-          </cell>
-          <cell r="D160">
-            <v>36822.250000100001</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>3448</v>
-          </cell>
-          <cell r="C161">
-            <v>4083826.2</v>
-          </cell>
-          <cell r="D161">
-            <v>36963.799999900002</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>3448.5</v>
-          </cell>
-          <cell r="C162">
-            <v>4102343.49</v>
-          </cell>
-          <cell r="D162">
-            <v>37105.35</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>3449</v>
-          </cell>
-          <cell r="C163">
-            <v>4120931.55</v>
-          </cell>
-          <cell r="D163">
-            <v>37246.899999900001</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>3449.5</v>
-          </cell>
-          <cell r="C164">
-            <v>4139590.39</v>
-          </cell>
-          <cell r="D164">
-            <v>37388.449999999997</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>3450</v>
-          </cell>
-          <cell r="C165">
-            <v>4158320</v>
-          </cell>
-          <cell r="D165">
-            <v>37530.000000100001</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>3450.5</v>
-          </cell>
-          <cell r="C166">
-            <v>4177120.39</v>
-          </cell>
-          <cell r="D166">
-            <v>37671.549999900002</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>3451</v>
-          </cell>
-          <cell r="C167">
-            <v>4195991.55</v>
-          </cell>
-          <cell r="D167">
-            <v>37813.1</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>3451.5</v>
-          </cell>
-          <cell r="C168">
-            <v>4214933.49</v>
-          </cell>
-          <cell r="D168">
-            <v>37954.649999900001</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>3452</v>
-          </cell>
-          <cell r="C169">
-            <v>4233946.2</v>
-          </cell>
-          <cell r="D169">
-            <v>38096.199999999997</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>3452.5</v>
-          </cell>
-          <cell r="C170">
-            <v>4253029.6899999995</v>
-          </cell>
-          <cell r="D170">
-            <v>38237.750000100001</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>3453</v>
-          </cell>
-          <cell r="C171">
-            <v>4272183.95</v>
-          </cell>
-          <cell r="D171">
-            <v>38379.299999900002</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>3453.5</v>
-          </cell>
-          <cell r="C172">
-            <v>4291408.99</v>
-          </cell>
-          <cell r="D172">
-            <v>38520.85</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>3454</v>
-          </cell>
-          <cell r="C173">
-            <v>4310704.8</v>
-          </cell>
-          <cell r="D173">
-            <v>38662.399999900001</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>3454.5</v>
-          </cell>
-          <cell r="C174">
-            <v>4330071.3900000006</v>
-          </cell>
-          <cell r="D174">
-            <v>38803.949999999997</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>3455</v>
-          </cell>
-          <cell r="C175">
-            <v>4349508.75</v>
-          </cell>
-          <cell r="D175">
-            <v>38945.500000100001</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>3455.5</v>
-          </cell>
-          <cell r="C176">
-            <v>4369016.8900000006</v>
-          </cell>
-          <cell r="D176">
-            <v>39087.050000000003</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>3456</v>
-          </cell>
-          <cell r="C177">
-            <v>4388595.8</v>
-          </cell>
-          <cell r="D177">
-            <v>39228.600000099999</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>3456.5</v>
-          </cell>
-          <cell r="C178">
-            <v>4408245.49</v>
-          </cell>
-          <cell r="D178">
-            <v>39370.149999900001</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>3457</v>
-          </cell>
-          <cell r="C179">
-            <v>4427965.95</v>
-          </cell>
-          <cell r="D179">
-            <v>39511.699999999997</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>3457.5</v>
-          </cell>
-          <cell r="C180">
-            <v>4447757.1899999995</v>
-          </cell>
-          <cell r="D180">
-            <v>39653.250000100001</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>3458</v>
-          </cell>
-          <cell r="C181">
-            <v>4467619.2</v>
-          </cell>
-          <cell r="D181">
-            <v>39794.800000000003</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>3458.5</v>
-          </cell>
-          <cell r="C182">
-            <v>4487551.99</v>
-          </cell>
-          <cell r="D182">
-            <v>39936.350000099999</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>3459</v>
-          </cell>
-          <cell r="C183">
-            <v>4507555.55</v>
-          </cell>
-          <cell r="D183">
-            <v>40077.899999900001</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>3459.5</v>
-          </cell>
-          <cell r="C184">
-            <v>4527629.8900000006</v>
-          </cell>
-          <cell r="D184">
-            <v>40219.449999999997</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>3460</v>
-          </cell>
-          <cell r="C185">
-            <v>4547775</v>
-          </cell>
-          <cell r="D185">
-            <v>40360.999999899999</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>3460.5</v>
-          </cell>
-          <cell r="C186">
-            <v>4567992.46</v>
-          </cell>
-          <cell r="D186">
-            <v>40508.850000099999</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>3461</v>
-          </cell>
-          <cell r="C187">
-            <v>4588283.8499999996</v>
-          </cell>
-          <cell r="D187">
-            <v>40656.700000099998</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>3461.5</v>
-          </cell>
-          <cell r="C188">
-            <v>4608649.16</v>
-          </cell>
-          <cell r="D188">
-            <v>40804.550000099996</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>3462</v>
-          </cell>
-          <cell r="C189">
-            <v>4629088.4000000004</v>
-          </cell>
-          <cell r="D189">
-            <v>40952.400000100002</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>3462.5</v>
-          </cell>
-          <cell r="C190">
-            <v>4649601.5600000005</v>
-          </cell>
-          <cell r="D190">
-            <v>41100.250000100001</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>3463</v>
-          </cell>
-          <cell r="C191">
-            <v>4670188.6500000004</v>
-          </cell>
-          <cell r="D191">
-            <v>41248.1</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>3463.5</v>
-          </cell>
-          <cell r="C192">
-            <v>4690849.66</v>
-          </cell>
-          <cell r="D192">
-            <v>41395.949999999997</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>3464</v>
-          </cell>
-          <cell r="C193">
-            <v>4711584.5999999996</v>
-          </cell>
-          <cell r="D193">
-            <v>41543.800000000003</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>3464.5</v>
-          </cell>
-          <cell r="C194">
-            <v>4732393.46</v>
-          </cell>
-          <cell r="D194">
-            <v>41691.65</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>3465</v>
-          </cell>
-          <cell r="C195">
-            <v>4753276.25</v>
-          </cell>
-          <cell r="D195">
-            <v>41839.5</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>3465.5</v>
-          </cell>
-          <cell r="C196">
-            <v>4774232.96</v>
-          </cell>
-          <cell r="D196">
-            <v>41987.35</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>3466</v>
-          </cell>
-          <cell r="C197">
-            <v>4795263.5999999996</v>
-          </cell>
-          <cell r="D197">
-            <v>42135.199999999997</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>3466.5</v>
-          </cell>
-          <cell r="C198">
-            <v>4816368.16</v>
-          </cell>
-          <cell r="D198">
-            <v>42283.05</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>3467</v>
-          </cell>
-          <cell r="C199">
-            <v>4837546.6500000004</v>
-          </cell>
-          <cell r="D199">
-            <v>42430.899999900001</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>3467.5</v>
-          </cell>
-          <cell r="C200">
-            <v>4858799.0600000005</v>
-          </cell>
-          <cell r="D200">
-            <v>42578.749999899999</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>3468</v>
-          </cell>
-          <cell r="C201">
-            <v>4880125.4000000004</v>
-          </cell>
-          <cell r="D201">
-            <v>42726.599999899998</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>3468.5</v>
-          </cell>
-          <cell r="C202">
-            <v>4901525.66</v>
-          </cell>
-          <cell r="D202">
-            <v>42874.449999900004</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>3469</v>
-          </cell>
-          <cell r="C203">
-            <v>4922999.8499999996</v>
-          </cell>
-          <cell r="D203">
-            <v>43022.299999900002</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>3469.5</v>
-          </cell>
-          <cell r="C204">
-            <v>4944547.96</v>
-          </cell>
-          <cell r="D204">
-            <v>43170.149999900001</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>3470</v>
-          </cell>
-          <cell r="C205">
-            <v>4966170</v>
-          </cell>
-          <cell r="D205">
-            <v>43318.000000100001</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>3470.5</v>
-          </cell>
-          <cell r="C206">
-            <v>4987865.96</v>
-          </cell>
-          <cell r="D206">
-            <v>43465.850000099999</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>3471</v>
-          </cell>
-          <cell r="C207">
-            <v>5009635.8499999996</v>
-          </cell>
-          <cell r="D207">
-            <v>43613.700000099998</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>3471.5</v>
-          </cell>
-          <cell r="C208">
-            <v>5031479.66</v>
-          </cell>
-          <cell r="D208">
-            <v>43761.550000099996</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>3472</v>
-          </cell>
-          <cell r="C209">
-            <v>5053397.4000000004</v>
-          </cell>
-          <cell r="D209">
-            <v>43909.400000100002</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>3472.5</v>
-          </cell>
-          <cell r="C210">
-            <v>5075389.0600000005</v>
-          </cell>
-          <cell r="D210">
-            <v>44057.250000100001</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>3473</v>
-          </cell>
-          <cell r="C211">
-            <v>5097454.6500000004</v>
-          </cell>
-          <cell r="D211">
-            <v>44205.1</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>3473.5</v>
-          </cell>
-          <cell r="C212">
-            <v>5119594.16</v>
-          </cell>
-          <cell r="D212">
-            <v>44352.95</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>3474</v>
-          </cell>
-          <cell r="C213">
-            <v>5141807.5999999996</v>
-          </cell>
-          <cell r="D213">
-            <v>44500.800000000003</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>3474.5</v>
-          </cell>
-          <cell r="C214">
-            <v>5164094.96</v>
-          </cell>
-          <cell r="D214">
-            <v>44648.65</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>3475</v>
-          </cell>
-          <cell r="C215">
-            <v>5186456.25</v>
-          </cell>
-          <cell r="D215">
-            <v>44796.5</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>3475.5</v>
-          </cell>
-          <cell r="C216">
-            <v>5208891.46</v>
-          </cell>
-          <cell r="D216">
-            <v>44944.35</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>3476</v>
-          </cell>
-          <cell r="C217">
-            <v>5231400.5999999996</v>
-          </cell>
-          <cell r="D217">
-            <v>45092.2</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>3476.5</v>
-          </cell>
-          <cell r="C218">
-            <v>5253983.66</v>
-          </cell>
-          <cell r="D218">
-            <v>45240.05</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>3477</v>
-          </cell>
-          <cell r="C219">
-            <v>5276640.6500000004</v>
-          </cell>
-          <cell r="D219">
-            <v>45387.899999900001</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>3477.5</v>
-          </cell>
-          <cell r="C220">
-            <v>5299371.5600000005</v>
-          </cell>
-          <cell r="D220">
-            <v>45535.749999899999</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>3478</v>
-          </cell>
-          <cell r="C221">
-            <v>5322176.4000000004</v>
-          </cell>
-          <cell r="D221">
-            <v>45683.599999899998</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>3478.5</v>
-          </cell>
-          <cell r="C222">
-            <v>5345055.16</v>
-          </cell>
-          <cell r="D222">
-            <v>45831.449999900004</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>3479</v>
-          </cell>
-          <cell r="C223">
-            <v>5368007.8499999996</v>
-          </cell>
-          <cell r="D223">
-            <v>45979.299999900002</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>3479.5</v>
-          </cell>
-          <cell r="C224">
-            <v>5391034.46</v>
-          </cell>
-          <cell r="D224">
-            <v>46127.150000100002</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>3480</v>
-          </cell>
-          <cell r="C225">
-            <v>5414135</v>
-          </cell>
-          <cell r="D225">
-            <v>46275.000000100001</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>3480.5</v>
-          </cell>
-          <cell r="C226">
-            <v>5437310.6899999995</v>
-          </cell>
-          <cell r="D226">
-            <v>46427.769999900003</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>3481</v>
-          </cell>
-          <cell r="C227">
-            <v>5460562.7699999996</v>
-          </cell>
-          <cell r="D227">
-            <v>46580.549999900002</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>3481.5</v>
-          </cell>
-          <cell r="C228">
-            <v>5483891.2400000002</v>
-          </cell>
-          <cell r="D228">
-            <v>46733.32</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>3482</v>
-          </cell>
-          <cell r="C229">
-            <v>5507296.0999999996</v>
-          </cell>
-          <cell r="D229">
-            <v>46886.099999899998</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>3482.5</v>
-          </cell>
-          <cell r="C230">
-            <v>5530777.3399999999</v>
-          </cell>
-          <cell r="D230">
-            <v>47038.87</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>3483</v>
-          </cell>
-          <cell r="C231">
-            <v>5554334.9700000007</v>
-          </cell>
-          <cell r="D231">
-            <v>47191.65</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>3483.5</v>
-          </cell>
-          <cell r="C232">
-            <v>5577968.9900000002</v>
-          </cell>
-          <cell r="D232">
-            <v>47344.42</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>3484</v>
-          </cell>
-          <cell r="C233">
-            <v>5601679.4000000004</v>
-          </cell>
-          <cell r="D233">
-            <v>47497.2</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>3484.5</v>
-          </cell>
-          <cell r="C234">
-            <v>5625466.1899999995</v>
-          </cell>
-          <cell r="D234">
-            <v>47649.970000100002</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>3485</v>
-          </cell>
-          <cell r="C235">
-            <v>5649329.3700000001</v>
-          </cell>
-          <cell r="D235">
-            <v>47802.75</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>3485.5</v>
-          </cell>
-          <cell r="C236">
-            <v>5673268.9399999995</v>
-          </cell>
-          <cell r="D236">
-            <v>47955.520000099998</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>3486</v>
-          </cell>
-          <cell r="C237">
-            <v>5697284.9000000004</v>
-          </cell>
-          <cell r="D237">
-            <v>48108.300000099996</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>3486.5</v>
-          </cell>
-          <cell r="C238">
-            <v>5721377.2400000002</v>
-          </cell>
-          <cell r="D238">
-            <v>48261.069999899999</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>3487</v>
-          </cell>
-          <cell r="C239">
-            <v>5745545.9700000007</v>
-          </cell>
-          <cell r="D239">
-            <v>48413.850000099999</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>3487.5</v>
-          </cell>
-          <cell r="C240">
-            <v>5769791.0899999999</v>
-          </cell>
-          <cell r="D240">
-            <v>48566.619999900002</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>3488</v>
-          </cell>
-          <cell r="C241">
-            <v>5794112.5999999996</v>
-          </cell>
-          <cell r="D241">
-            <v>48719.399999900001</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>3488.5</v>
-          </cell>
-          <cell r="C242">
-            <v>5818510.4900000002</v>
-          </cell>
-          <cell r="D242">
-            <v>48872.17</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>3489</v>
-          </cell>
-          <cell r="C243">
-            <v>5842984.7699999996</v>
-          </cell>
-          <cell r="D243">
-            <v>49024.949999900004</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>3489.5</v>
-          </cell>
-          <cell r="C244">
-            <v>5867535.4399999995</v>
-          </cell>
-          <cell r="D244">
-            <v>49177.72</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>3490</v>
-          </cell>
-          <cell r="C245">
-            <v>5892162.5</v>
-          </cell>
-          <cell r="D245">
-            <v>49330.499999899999</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>3490.5</v>
-          </cell>
-          <cell r="C246">
-            <v>5916865.9399999995</v>
-          </cell>
-          <cell r="D246">
-            <v>49483.27</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>3491</v>
-          </cell>
-          <cell r="C247">
-            <v>5941645.7699999996</v>
-          </cell>
-          <cell r="D247">
-            <v>49636.05</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>3491.5</v>
-          </cell>
-          <cell r="C248">
-            <v>5966501.9900000002</v>
-          </cell>
-          <cell r="D248">
-            <v>49788.8200001</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>3492</v>
-          </cell>
-          <cell r="C249">
-            <v>5991434.5999999996</v>
-          </cell>
-          <cell r="D249">
-            <v>49941.599999999999</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>3492.5</v>
-          </cell>
-          <cell r="C250">
-            <v>6016443.5899999999</v>
-          </cell>
-          <cell r="D250">
-            <v>50094.370000100003</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>3493</v>
-          </cell>
-          <cell r="C251">
-            <v>6041528.9700000007</v>
-          </cell>
-          <cell r="D251">
-            <v>50247.150000100002</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>3493.5</v>
-          </cell>
-          <cell r="C252">
-            <v>6066690.7400000002</v>
-          </cell>
-          <cell r="D252">
-            <v>50399.919999899997</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>3494</v>
-          </cell>
-          <cell r="C253">
-            <v>6091928.9000000004</v>
-          </cell>
-          <cell r="D253">
-            <v>50552.700000099998</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>3494.5</v>
-          </cell>
-          <cell r="C254">
-            <v>6117243.4400000004</v>
-          </cell>
-          <cell r="D254">
-            <v>50705.4699999</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>3495</v>
-          </cell>
-          <cell r="C255">
-            <v>6142634.3700000001</v>
-          </cell>
-          <cell r="D255">
-            <v>50858.250000100001</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>3495.5</v>
-          </cell>
-          <cell r="C256">
-            <v>6168101.6900000004</v>
-          </cell>
-          <cell r="D256">
-            <v>51011.02</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>3496</v>
-          </cell>
-          <cell r="C257">
-            <v>6193645.4000000004</v>
-          </cell>
-          <cell r="D257">
-            <v>51163.799999900002</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>3496.5</v>
-          </cell>
-          <cell r="C258">
-            <v>6219265.4900000002</v>
-          </cell>
-          <cell r="D258">
-            <v>51316.57</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>3497</v>
-          </cell>
-          <cell r="C259">
-            <v>6244961.9699999997</v>
-          </cell>
-          <cell r="D259">
-            <v>51469.349999899998</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>3497.5</v>
-          </cell>
-          <cell r="C260">
-            <v>6270734.8399999999</v>
-          </cell>
-          <cell r="D260">
-            <v>51622.12</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>3498</v>
-          </cell>
-          <cell r="C261">
-            <v>6296584.0999999996</v>
-          </cell>
-          <cell r="D261">
-            <v>51774.9</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>3498.5</v>
-          </cell>
-          <cell r="C262">
-            <v>6322509.7400000002</v>
-          </cell>
-          <cell r="D262">
-            <v>51927.670000099999</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>3499</v>
-          </cell>
-          <cell r="C263">
-            <v>6348511.7699999996</v>
-          </cell>
-          <cell r="D263">
-            <v>52080.45</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>3499.5</v>
-          </cell>
-          <cell r="C264">
-            <v>6374590.1900000004</v>
-          </cell>
-          <cell r="D264">
-            <v>52233.220000100002</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>3500</v>
-          </cell>
-          <cell r="C265">
-            <v>6400745</v>
-          </cell>
-          <cell r="D265">
-            <v>52386</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>3500.5</v>
-          </cell>
-          <cell r="C266">
-            <v>6426982.3099999996</v>
-          </cell>
-          <cell r="D266">
-            <v>52563.250000100001</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>3501</v>
-          </cell>
-          <cell r="C267">
-            <v>6453308.25</v>
-          </cell>
-          <cell r="D267">
-            <v>52740.500000100001</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>3501.5</v>
-          </cell>
-          <cell r="C268">
-            <v>6479722.8099999996</v>
-          </cell>
-          <cell r="D268">
-            <v>52917.749999899999</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>3502</v>
-          </cell>
-          <cell r="C269">
-            <v>6506226</v>
-          </cell>
-          <cell r="D269">
-            <v>53094.999999899999</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>3502.5</v>
-          </cell>
-          <cell r="C270">
-            <v>6532817.8099999996</v>
-          </cell>
-          <cell r="D270">
-            <v>53272.25</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>3503</v>
-          </cell>
-          <cell r="C271">
-            <v>6559498.25</v>
-          </cell>
-          <cell r="D271">
-            <v>53449.5</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>3503.5</v>
-          </cell>
-          <cell r="C272">
-            <v>6586267.3099999996</v>
-          </cell>
-          <cell r="D272">
-            <v>53626.75</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>3504</v>
-          </cell>
-          <cell r="C273">
-            <v>6613125</v>
-          </cell>
-          <cell r="D273">
-            <v>53804</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>3504.5</v>
-          </cell>
-          <cell r="C274">
-            <v>6640071.3099999996</v>
-          </cell>
-          <cell r="D274">
-            <v>53981.250000100001</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275">
-            <v>3505</v>
-          </cell>
-          <cell r="C275">
-            <v>6667106.25</v>
-          </cell>
-          <cell r="D275">
-            <v>54158.500000100001</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276">
-            <v>3505.5</v>
-          </cell>
-          <cell r="C276">
-            <v>6694229.8099999996</v>
-          </cell>
-          <cell r="D276">
-            <v>54335.749999899999</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277">
-            <v>3506</v>
-          </cell>
-          <cell r="C277">
-            <v>6721442</v>
-          </cell>
-          <cell r="D277">
-            <v>54512.999999899999</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278">
-            <v>3506.5</v>
-          </cell>
-          <cell r="C278">
-            <v>6748742.8099999996</v>
-          </cell>
-          <cell r="D278">
-            <v>54690.25</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279">
-            <v>3507</v>
-          </cell>
-          <cell r="C279">
-            <v>6776132.25</v>
-          </cell>
-          <cell r="D279">
-            <v>54867.5</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280">
-            <v>3507.5</v>
-          </cell>
-          <cell r="C280">
-            <v>6803610.3099999996</v>
-          </cell>
-          <cell r="D280">
-            <v>55044.75</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281">
-            <v>3508</v>
-          </cell>
-          <cell r="C281">
-            <v>6831177</v>
-          </cell>
-          <cell r="D281">
-            <v>55222.000000100001</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282">
-            <v>3508.5</v>
-          </cell>
-          <cell r="C282">
-            <v>6858832.3099999996</v>
-          </cell>
-          <cell r="D282">
-            <v>55399.250000100001</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283">
-            <v>3509</v>
-          </cell>
-          <cell r="C283">
-            <v>6886576.25</v>
-          </cell>
-          <cell r="D283">
-            <v>55576.500000100001</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284">
-            <v>3509.5</v>
-          </cell>
-          <cell r="C284">
-            <v>6914408.8099999996</v>
-          </cell>
-          <cell r="D284">
-            <v>55753.749999899999</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285">
-            <v>3510</v>
-          </cell>
-          <cell r="C285">
-            <v>6942330</v>
-          </cell>
-          <cell r="D285">
-            <v>55930.999999899999</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286">
-            <v>3510.5</v>
-          </cell>
-          <cell r="C286">
-            <v>6970339.8099999996</v>
-          </cell>
-          <cell r="D286">
-            <v>56108.25</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287">
-            <v>3511</v>
-          </cell>
-          <cell r="C287">
-            <v>6998438.25</v>
-          </cell>
-          <cell r="D287">
-            <v>56285.5</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288">
-            <v>3511.5</v>
-          </cell>
-          <cell r="C288">
-            <v>7026625.3099999996</v>
-          </cell>
-          <cell r="D288">
-            <v>56462.75</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289">
-            <v>3512</v>
-          </cell>
-          <cell r="C289">
-            <v>7054901</v>
-          </cell>
-          <cell r="D289">
-            <v>56640.000000100001</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290">
-            <v>3512.5</v>
-          </cell>
-          <cell r="C290">
-            <v>7083265.3099999996</v>
-          </cell>
-          <cell r="D290">
-            <v>56817.250000100001</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291">
-            <v>3513</v>
-          </cell>
-          <cell r="C291">
-            <v>7111718.25</v>
-          </cell>
-          <cell r="D291">
-            <v>56994.499999899999</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292">
-            <v>3513.5</v>
-          </cell>
-          <cell r="C292">
-            <v>7140259.8099999996</v>
-          </cell>
-          <cell r="D292">
-            <v>57171.749999899999</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293">
-            <v>3514</v>
-          </cell>
-          <cell r="C293">
-            <v>7168890</v>
-          </cell>
-          <cell r="D293">
-            <v>57348.999999899999</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294">
-            <v>3514.5</v>
-          </cell>
-          <cell r="C294">
-            <v>7197608.8099999996</v>
-          </cell>
-          <cell r="D294">
-            <v>57526.25</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295">
-            <v>3515</v>
-          </cell>
-          <cell r="C295">
-            <v>7226416.25</v>
-          </cell>
-          <cell r="D295">
-            <v>57703.5</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296">
-            <v>3515.5</v>
-          </cell>
-          <cell r="C296">
-            <v>7255312.3099999996</v>
-          </cell>
-          <cell r="D296">
-            <v>57880.75</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297">
-            <v>3516</v>
-          </cell>
-          <cell r="C297">
-            <v>7284297</v>
-          </cell>
-          <cell r="D297">
-            <v>58058.000000100001</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="A298">
-            <v>3516.5</v>
-          </cell>
-          <cell r="C298">
-            <v>7313370.3099999996</v>
-          </cell>
-          <cell r="D298">
-            <v>58235.250000100001</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="A299">
-            <v>3517</v>
-          </cell>
-          <cell r="C299">
-            <v>7342532.25</v>
-          </cell>
-          <cell r="D299">
-            <v>58412.499999899999</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="A300">
-            <v>3517.5</v>
-          </cell>
-          <cell r="C300">
-            <v>7371782.8099999996</v>
-          </cell>
-          <cell r="D300">
-            <v>58589.749999899999</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="A301">
-            <v>3518</v>
-          </cell>
-          <cell r="C301">
-            <v>7401122</v>
-          </cell>
-          <cell r="D301">
-            <v>58767</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="A302">
-            <v>3518.5</v>
-          </cell>
-          <cell r="C302">
-            <v>7430549.8099999996</v>
-          </cell>
-          <cell r="D302">
-            <v>58944.25</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303">
-            <v>3519</v>
-          </cell>
-          <cell r="C303">
-            <v>7460066.25</v>
-          </cell>
-          <cell r="D303">
-            <v>59121.5</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>3519.5</v>
-          </cell>
-          <cell r="C304">
-            <v>7489671.3099999996</v>
-          </cell>
-          <cell r="D304">
-            <v>59298.750000100001</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="A305">
-            <v>3520</v>
-          </cell>
-          <cell r="C305">
-            <v>7519365</v>
-          </cell>
-          <cell r="D305">
-            <v>59476.000000100001</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="A306">
-            <v>3520.5</v>
-          </cell>
-          <cell r="C306">
-            <v>7549151.3099999996</v>
-          </cell>
-          <cell r="D306">
-            <v>59669.249999899999</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="A307">
-            <v>3521</v>
-          </cell>
-          <cell r="C307">
-            <v>7579034.25</v>
-          </cell>
-          <cell r="D307">
-            <v>59862.5</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="A308">
-            <v>3521.5</v>
-          </cell>
-          <cell r="C308">
-            <v>7609013.8099999996</v>
-          </cell>
-          <cell r="D308">
-            <v>60055.750000100001</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="A309">
-            <v>3522</v>
-          </cell>
-          <cell r="C309">
-            <v>7639090</v>
-          </cell>
-          <cell r="D309">
-            <v>60249</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="A310">
-            <v>3522.5</v>
-          </cell>
-          <cell r="C310">
-            <v>7669262.8099999996</v>
-          </cell>
-          <cell r="D310">
-            <v>60442.25</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="A311">
-            <v>3523</v>
-          </cell>
-          <cell r="C311">
-            <v>7699532.25</v>
-          </cell>
-          <cell r="D311">
-            <v>60635.499999899999</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="A312">
-            <v>3523.5</v>
-          </cell>
-          <cell r="C312">
-            <v>7729898.3099999996</v>
-          </cell>
-          <cell r="D312">
-            <v>60828.75</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="A313">
-            <v>3524</v>
-          </cell>
-          <cell r="C313">
-            <v>7760361</v>
-          </cell>
-          <cell r="D313">
-            <v>61022.000000100001</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="A314">
-            <v>3524.5</v>
-          </cell>
-          <cell r="C314">
-            <v>7790920.3099999996</v>
-          </cell>
-          <cell r="D314">
-            <v>61215.249999899999</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="A315">
-            <v>3525</v>
-          </cell>
-          <cell r="C315">
-            <v>7821576.25</v>
-          </cell>
-          <cell r="D315">
-            <v>61408.5</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="A316">
-            <v>3525.5</v>
-          </cell>
-          <cell r="C316">
-            <v>7852328.8099999996</v>
-          </cell>
-          <cell r="D316">
-            <v>61601.750000100001</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="A317">
-            <v>3526</v>
-          </cell>
-          <cell r="C317">
-            <v>7883178</v>
-          </cell>
-          <cell r="D317">
-            <v>61794.999999899999</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="A318">
-            <v>3526.5</v>
-          </cell>
-          <cell r="C318">
-            <v>7914123.8099999996</v>
-          </cell>
-          <cell r="D318">
-            <v>61988.25</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="A319">
-            <v>3527</v>
-          </cell>
-          <cell r="C319">
-            <v>7945166.25</v>
-          </cell>
-          <cell r="D319">
-            <v>62181.499999899999</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="A320">
-            <v>3527.5</v>
-          </cell>
-          <cell r="C320">
-            <v>7976305.3099999996</v>
-          </cell>
-          <cell r="D320">
-            <v>62374.75</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="A321">
-            <v>3528</v>
-          </cell>
-          <cell r="C321">
-            <v>8007541</v>
-          </cell>
-          <cell r="D321">
-            <v>62568.000000100001</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="A322">
-            <v>3528.5</v>
-          </cell>
-          <cell r="C322">
-            <v>8038873.3099999996</v>
-          </cell>
-          <cell r="D322">
-            <v>62761.249999899999</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="A323">
-            <v>3529</v>
-          </cell>
-          <cell r="C323">
-            <v>8070302.25</v>
-          </cell>
-          <cell r="D323">
-            <v>62954.5</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="A324">
-            <v>3529.5</v>
-          </cell>
-          <cell r="C324">
-            <v>8101827.8099999996</v>
-          </cell>
-          <cell r="D324">
-            <v>63147.750000100001</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="A325">
-            <v>3530</v>
-          </cell>
-          <cell r="C325">
-            <v>8133450</v>
-          </cell>
-          <cell r="D325">
-            <v>63340.999999899999</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="A326">
-            <v>3530.5</v>
-          </cell>
-          <cell r="C326">
-            <v>8165168.8099999996</v>
-          </cell>
-          <cell r="D326">
-            <v>63534.25</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="A327">
-            <v>3531</v>
-          </cell>
-          <cell r="C327">
-            <v>8196984.25</v>
-          </cell>
-          <cell r="D327">
-            <v>63727.499999899999</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="A328">
-            <v>3531.5</v>
-          </cell>
-          <cell r="C328">
-            <v>8228896.3099999996</v>
-          </cell>
-          <cell r="D328">
-            <v>63920.75</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="A329">
-            <v>3532</v>
-          </cell>
-          <cell r="C329">
-            <v>8260905</v>
-          </cell>
-          <cell r="D329">
-            <v>64114.000000100001</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="A330">
-            <v>3532.5</v>
-          </cell>
-          <cell r="C330">
-            <v>8293010.3099999996</v>
-          </cell>
-          <cell r="D330">
-            <v>64307.249999899999</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="A331">
-            <v>3533</v>
-          </cell>
-          <cell r="C331">
-            <v>8325212.25</v>
-          </cell>
-          <cell r="D331">
-            <v>64500.5</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="A332">
-            <v>3533.5</v>
-          </cell>
-          <cell r="C332">
-            <v>8357510.8099999996</v>
-          </cell>
-          <cell r="D332">
-            <v>64693.750000100001</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="A333">
-            <v>3534</v>
-          </cell>
-          <cell r="C333">
-            <v>8389906</v>
-          </cell>
-          <cell r="D333">
-            <v>64886.999999899999</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="A334">
-            <v>3534.5</v>
-          </cell>
-          <cell r="C334">
-            <v>8422397.8099999987</v>
-          </cell>
-          <cell r="D334">
-            <v>65080.25</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="A335">
-            <v>3535</v>
-          </cell>
-          <cell r="C335">
-            <v>8454986.25</v>
-          </cell>
-          <cell r="D335">
-            <v>65273.500000100001</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="A336">
-            <v>3535.5</v>
-          </cell>
-          <cell r="C336">
-            <v>8487671.3099999987</v>
-          </cell>
-          <cell r="D336">
-            <v>65466.75</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="A337">
-            <v>3536</v>
-          </cell>
-          <cell r="C337">
-            <v>8520453</v>
-          </cell>
-          <cell r="D337">
-            <v>65660.000000100001</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="A338">
-            <v>3536.5</v>
-          </cell>
-          <cell r="C338">
-            <v>8553331.3099999987</v>
-          </cell>
-          <cell r="D338">
-            <v>65853.249999899999</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="A339">
-            <v>3537</v>
-          </cell>
-          <cell r="C339">
-            <v>8586306.25</v>
-          </cell>
-          <cell r="D339">
-            <v>66046.5</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="A340">
-            <v>3537.5</v>
-          </cell>
-          <cell r="C340">
-            <v>8619377.8099999987</v>
-          </cell>
-          <cell r="D340">
-            <v>66239.750000100001</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="A341">
-            <v>3538</v>
-          </cell>
-          <cell r="C341">
-            <v>8652546</v>
-          </cell>
-          <cell r="D341">
-            <v>66432.999999899999</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="A342">
-            <v>3538.5</v>
-          </cell>
-          <cell r="C342">
-            <v>8685810.8099999987</v>
-          </cell>
-          <cell r="D342">
-            <v>66626.25</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="A343">
-            <v>3539</v>
-          </cell>
-          <cell r="C343">
-            <v>8719172.25</v>
-          </cell>
-          <cell r="D343">
-            <v>66819.500000100001</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="A344">
-            <v>3539.5</v>
-          </cell>
-          <cell r="C344">
-            <v>8752630.3099999987</v>
-          </cell>
-          <cell r="D344">
-            <v>67012.75</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="A345">
-            <v>3540</v>
-          </cell>
-          <cell r="C345">
-            <v>8786185</v>
-          </cell>
-          <cell r="D345">
-            <v>67206</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="A346">
-            <v>3540.5</v>
-          </cell>
-          <cell r="C346">
-            <v>8819842.8399999999</v>
-          </cell>
-          <cell r="D346">
-            <v>67425.37</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="A347">
-            <v>3541</v>
-          </cell>
-          <cell r="C347">
-            <v>8853610.370000001</v>
-          </cell>
-          <cell r="D347">
-            <v>67644.75</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="A348">
-            <v>3541.5</v>
-          </cell>
-          <cell r="C348">
-            <v>8887487.5899999999</v>
-          </cell>
-          <cell r="D348">
-            <v>67864.120000099996</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="A349">
-            <v>3542</v>
-          </cell>
-          <cell r="C349">
-            <v>8921474.5</v>
-          </cell>
-          <cell r="D349">
-            <v>68083.499999899999</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="A350">
-            <v>3542.5</v>
-          </cell>
-          <cell r="C350">
-            <v>8955571.0899999999</v>
-          </cell>
-          <cell r="D350">
-            <v>68302.87</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="A351">
-            <v>3543</v>
-          </cell>
-          <cell r="C351">
-            <v>8989777.370000001</v>
-          </cell>
-          <cell r="D351">
-            <v>68522.25</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="A352">
-            <v>3543.5</v>
-          </cell>
-          <cell r="C352">
-            <v>9024093.3399999999</v>
-          </cell>
-          <cell r="D352">
-            <v>68741.62</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="A353">
-            <v>3544</v>
-          </cell>
-          <cell r="C353">
-            <v>9058519</v>
-          </cell>
-          <cell r="D353">
-            <v>68961</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="A354">
-            <v>3544.5</v>
-          </cell>
-          <cell r="C354">
-            <v>9093054.3399999999</v>
-          </cell>
-          <cell r="D354">
-            <v>69180.370000099996</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="A355">
-            <v>3545</v>
-          </cell>
-          <cell r="C355">
-            <v>9127699.370000001</v>
-          </cell>
-          <cell r="D355">
-            <v>69399.749999899999</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="A356">
-            <v>3545.5</v>
-          </cell>
-          <cell r="C356">
-            <v>9162454.0899999999</v>
-          </cell>
-          <cell r="D356">
-            <v>69619.12</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="A357">
-            <v>3546</v>
-          </cell>
-          <cell r="C357">
-            <v>9197318.5</v>
-          </cell>
-          <cell r="D357">
-            <v>69838.500000100001</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="A358">
-            <v>3546.5</v>
-          </cell>
-          <cell r="C358">
-            <v>9232292.5899999999</v>
-          </cell>
-          <cell r="D358">
-            <v>70057.87</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="A359">
-            <v>3547</v>
-          </cell>
-          <cell r="C359">
-            <v>9267376.370000001</v>
-          </cell>
-          <cell r="D359">
-            <v>70277.25</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="A360">
-            <v>3547.5</v>
-          </cell>
-          <cell r="C360">
-            <v>9302569.8399999999</v>
-          </cell>
-          <cell r="D360">
-            <v>70496.619999899995</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="A361">
-            <v>3548</v>
-          </cell>
-          <cell r="C361">
-            <v>9337873</v>
-          </cell>
-          <cell r="D361">
-            <v>70715.999999899999</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="A362">
-            <v>3548.5</v>
-          </cell>
-          <cell r="C362">
-            <v>9373285.8399999999</v>
-          </cell>
-          <cell r="D362">
-            <v>70935.37</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="A363">
-            <v>3549</v>
-          </cell>
-          <cell r="C363">
-            <v>9408808.370000001</v>
-          </cell>
-          <cell r="D363">
-            <v>71154.750000100001</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="A364">
-            <v>3549.5</v>
-          </cell>
-          <cell r="C364">
-            <v>9444440.5899999999</v>
-          </cell>
-          <cell r="D364">
-            <v>71374.12</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="A365">
-            <v>3550</v>
-          </cell>
-          <cell r="C365">
-            <v>9480182.5</v>
-          </cell>
-          <cell r="D365">
-            <v>71593.5</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="A366">
-            <v>3550.5</v>
-          </cell>
-          <cell r="C366">
-            <v>9516034.0899999999</v>
-          </cell>
-          <cell r="D366">
-            <v>71812.869999899995</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="A367">
-            <v>3551</v>
-          </cell>
-          <cell r="C367">
-            <v>9551995.370000001</v>
-          </cell>
-          <cell r="D367">
-            <v>72032.249999899999</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="A368">
-            <v>3551.5</v>
-          </cell>
-          <cell r="C368">
-            <v>9588066.3399999999</v>
-          </cell>
-          <cell r="D368">
-            <v>72251.62</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="A369">
-            <v>3552</v>
-          </cell>
-          <cell r="C369">
-            <v>9624247</v>
-          </cell>
-          <cell r="D369">
-            <v>72471.000000100001</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="A370">
-            <v>3552.5</v>
-          </cell>
-          <cell r="C370">
-            <v>9660537.3399999999</v>
-          </cell>
-          <cell r="D370">
-            <v>72690.37</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="A371">
-            <v>3553</v>
-          </cell>
-          <cell r="C371">
-            <v>9696937.370000001</v>
-          </cell>
-          <cell r="D371">
-            <v>72909.75</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="A372">
-            <v>3553.5</v>
-          </cell>
-          <cell r="C372">
-            <v>9733447.0899999999</v>
-          </cell>
-          <cell r="D372">
-            <v>73129.119999899995</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="A373">
-            <v>3554</v>
-          </cell>
-          <cell r="C373">
-            <v>9770066.5</v>
-          </cell>
-          <cell r="D373">
-            <v>73348.499999899999</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="A374">
-            <v>3554.5</v>
-          </cell>
-          <cell r="C374">
-            <v>9806795.5899999999</v>
-          </cell>
-          <cell r="D374">
-            <v>73567.870000099996</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="A375">
-            <v>3555</v>
-          </cell>
-          <cell r="C375">
-            <v>9843634.370000001</v>
-          </cell>
-          <cell r="D375">
-            <v>73787.250000100001</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="A376">
-            <v>3555.5</v>
-          </cell>
-          <cell r="C376">
-            <v>9880582.8399999999</v>
-          </cell>
-          <cell r="D376">
-            <v>74006.62</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="A377">
-            <v>3556</v>
-          </cell>
-          <cell r="C377">
-            <v>9917641</v>
-          </cell>
-          <cell r="D377">
-            <v>74226</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="A378">
-            <v>3556.5</v>
-          </cell>
-          <cell r="C378">
-            <v>9954808.8399999999</v>
-          </cell>
-          <cell r="D378">
-            <v>74445.369999899995</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="A379">
-            <v>3557</v>
-          </cell>
-          <cell r="C379">
-            <v>9992086.370000001</v>
-          </cell>
-          <cell r="D379">
-            <v>74664.749999899999</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="A380">
-            <v>3557.5</v>
-          </cell>
-          <cell r="C380">
-            <v>10029473.590020001</v>
-          </cell>
-          <cell r="D380">
-            <v>74884.120000099996</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="A381">
-            <v>3558</v>
-          </cell>
-          <cell r="C381">
-            <v>10066970.499979999</v>
-          </cell>
-          <cell r="D381">
-            <v>75103.500000100001</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="A382">
-            <v>3558.5</v>
-          </cell>
-          <cell r="C382">
-            <v>10104577.09003</v>
-          </cell>
-          <cell r="D382">
-            <v>75322.87</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="A383">
-            <v>3559</v>
-          </cell>
-          <cell r="C383">
-            <v>10142293.36998</v>
-          </cell>
-          <cell r="D383">
-            <v>75542.25</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="A384">
-            <v>3559.5</v>
-          </cell>
-          <cell r="C384">
-            <v>10180119.34</v>
-          </cell>
-          <cell r="D384">
-            <v>75761.619999899995</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="A385">
-            <v>3560</v>
-          </cell>
-          <cell r="C385">
-            <v>10218054.999990001</v>
-          </cell>
-          <cell r="D385">
-            <v>75980.999999899999</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="A386">
-            <v>3560.5</v>
-          </cell>
-          <cell r="C386">
-            <v>10256106.039960001</v>
-          </cell>
-          <cell r="D386">
-            <v>76223.149999999994</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="A387">
-            <v>3561</v>
-          </cell>
-          <cell r="C387">
-            <v>10294278.149970001</v>
-          </cell>
-          <cell r="D387">
-            <v>76465.300000100004</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="A388">
-            <v>3561.5</v>
-          </cell>
-          <cell r="C388">
-            <v>10332571.34</v>
-          </cell>
-          <cell r="D388">
-            <v>76707.449999899996</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="A389">
-            <v>3562</v>
-          </cell>
-          <cell r="C389">
-            <v>10370985.599989999</v>
-          </cell>
-          <cell r="D389">
-            <v>76949.600000000006</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="A390">
-            <v>3562.5</v>
-          </cell>
-          <cell r="C390">
-            <v>10409520.939990001</v>
-          </cell>
-          <cell r="D390">
-            <v>77191.750000100001</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="A391">
-            <v>3563</v>
-          </cell>
-          <cell r="C391">
-            <v>10448177.349959999</v>
-          </cell>
-          <cell r="D391">
-            <v>77433.899999899993</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="A392">
-            <v>3563.5</v>
-          </cell>
-          <cell r="C392">
-            <v>10486954.84003</v>
-          </cell>
-          <cell r="D392">
-            <v>77676.05</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="A393">
-            <v>3564</v>
-          </cell>
-          <cell r="C393">
-            <v>10525853.399970001</v>
-          </cell>
-          <cell r="D393">
-            <v>77918.2</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="A394">
-            <v>3564.5</v>
-          </cell>
-          <cell r="C394">
-            <v>10564873.04001</v>
-          </cell>
-          <cell r="D394">
-            <v>78160.350000100007</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="A395">
-            <v>3565</v>
-          </cell>
-          <cell r="C395">
-            <v>10604013.750019999</v>
-          </cell>
-          <cell r="D395">
-            <v>78402.499999899999</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="A396">
-            <v>3565.5</v>
-          </cell>
-          <cell r="C396">
-            <v>10643275.540039999</v>
-          </cell>
-          <cell r="D396">
-            <v>78644.649999999994</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="A397">
-            <v>3566</v>
-          </cell>
-          <cell r="C397">
-            <v>10682658.40002</v>
-          </cell>
-          <cell r="D397">
-            <v>78886.800000100004</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="A398">
-            <v>3566.5</v>
-          </cell>
-          <cell r="C398">
-            <v>10722162.340019999</v>
-          </cell>
-          <cell r="D398">
-            <v>79128.949999899996</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="A399">
-            <v>3567</v>
-          </cell>
-          <cell r="C399">
-            <v>10761787.34998</v>
-          </cell>
-          <cell r="D399">
-            <v>79371.100000000006</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="A400">
-            <v>3567.5</v>
-          </cell>
-          <cell r="C400">
-            <v>10801533.439959999</v>
-          </cell>
-          <cell r="D400">
-            <v>79613.250000100001</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="A401">
-            <v>3568</v>
-          </cell>
-          <cell r="C401">
-            <v>10841400.59998</v>
-          </cell>
-          <cell r="D401">
-            <v>79855.399999899993</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="A402">
-            <v>3568.5</v>
-          </cell>
-          <cell r="C402">
-            <v>10881388.840019999</v>
-          </cell>
-          <cell r="D402">
-            <v>80097.55</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="A403">
-            <v>3569</v>
-          </cell>
-          <cell r="C403">
-            <v>10921498.15002</v>
-          </cell>
-          <cell r="D403">
-            <v>80339.700000099998</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="A404">
-            <v>3569.5</v>
-          </cell>
-          <cell r="C404">
-            <v>10961728.540030001</v>
-          </cell>
-          <cell r="D404">
-            <v>80581.849999900005</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="A405">
-            <v>3570</v>
-          </cell>
-          <cell r="C405">
-            <v>11002080.000010001</v>
-          </cell>
-          <cell r="D405">
-            <v>80824</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="A406">
-            <v>3570.5</v>
-          </cell>
-          <cell r="C406">
-            <v>11042552.539999999</v>
-          </cell>
-          <cell r="D406">
-            <v>81066.150000099995</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="A407">
-            <v>3571</v>
-          </cell>
-          <cell r="C407">
-            <v>11083146.15003</v>
-          </cell>
-          <cell r="D407">
-            <v>81308.299999900002</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="A408">
-            <v>3571.5</v>
-          </cell>
-          <cell r="C408">
-            <v>11123860.84001</v>
-          </cell>
-          <cell r="D408">
-            <v>81550.45</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="A409">
-            <v>3572</v>
-          </cell>
-          <cell r="C409">
-            <v>11164696.600020001</v>
-          </cell>
-          <cell r="D409">
-            <v>81792.600000100007</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="A410">
-            <v>3572.5</v>
-          </cell>
-          <cell r="C410">
-            <v>11205653.43997</v>
-          </cell>
-          <cell r="D410">
-            <v>82034.749999899999</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="A411">
-            <v>3573</v>
-          </cell>
-          <cell r="C411">
-            <v>11246731.349959999</v>
-          </cell>
-          <cell r="D411">
-            <v>82276.899999999994</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="A412">
-            <v>3573.5</v>
-          </cell>
-          <cell r="C412">
-            <v>11287930.33997</v>
-          </cell>
-          <cell r="D412">
-            <v>82519.05</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="A413">
-            <v>3574</v>
-          </cell>
-          <cell r="C413">
-            <v>11329250.40002</v>
-          </cell>
-          <cell r="D413">
-            <v>82761.200000099998</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="A414">
-            <v>3574.5</v>
-          </cell>
-          <cell r="C414">
-            <v>11370691.54001</v>
-          </cell>
-          <cell r="D414">
-            <v>83003.349999900005</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="A415">
-            <v>3575</v>
-          </cell>
-          <cell r="C415">
-            <v>11412253.75004</v>
-          </cell>
-          <cell r="D415">
-            <v>83245.5</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="A416">
-            <v>3575.5</v>
-          </cell>
-          <cell r="C416">
-            <v>11453937.039999999</v>
-          </cell>
-          <cell r="D416">
-            <v>83487.650000099995</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="A417">
-            <v>3576</v>
-          </cell>
-          <cell r="C417">
-            <v>11495741.400010001</v>
-          </cell>
-          <cell r="D417">
-            <v>83729.799999900002</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="A418">
-            <v>3576.5</v>
-          </cell>
-          <cell r="C418">
-            <v>11537666.84003</v>
-          </cell>
-          <cell r="D418">
-            <v>83971.95</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="A419">
-            <v>3577</v>
-          </cell>
-          <cell r="C419">
-            <v>11579713.350020001</v>
-          </cell>
-          <cell r="D419">
-            <v>84214.100000100007</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="A420">
-            <v>3577.5</v>
-          </cell>
-          <cell r="C420">
-            <v>11621880.940020001</v>
-          </cell>
-          <cell r="D420">
-            <v>84456.249999899999</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="A421">
-            <v>3578</v>
-          </cell>
-          <cell r="C421">
-            <v>11664169.59998</v>
-          </cell>
-          <cell r="D421">
-            <v>84698.4</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="A422">
-            <v>3578.5</v>
-          </cell>
-          <cell r="C422">
-            <v>11706579.33996</v>
-          </cell>
-          <cell r="D422">
-            <v>84940.550000100004</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="A423">
-            <v>3579</v>
-          </cell>
-          <cell r="C423">
-            <v>11749110.14999</v>
-          </cell>
-          <cell r="D423">
-            <v>85182.699999899996</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="A424">
-            <v>3579.5</v>
-          </cell>
-          <cell r="C424">
-            <v>11791762.04002</v>
-          </cell>
-          <cell r="D424">
-            <v>85424.85</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="A425">
-            <v>3580</v>
-          </cell>
-          <cell r="C425">
-            <v>11834535.00003</v>
-          </cell>
-          <cell r="D425">
-            <v>85667.000000100001</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="A426">
-            <v>3580.5</v>
-          </cell>
-          <cell r="C426">
-            <v>11877429.250019999</v>
-          </cell>
-          <cell r="D426">
-            <v>85909.999999899999</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="A427">
-            <v>3581</v>
-          </cell>
-          <cell r="C427">
-            <v>11920445</v>
-          </cell>
-          <cell r="D427">
-            <v>86153</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="A428">
-            <v>3581.5</v>
-          </cell>
-          <cell r="C428">
-            <v>11963582.25</v>
-          </cell>
-          <cell r="D428">
-            <v>86396.000000100001</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="A429">
-            <v>3582</v>
-          </cell>
-          <cell r="C429">
-            <v>12006841</v>
-          </cell>
-          <cell r="D429">
-            <v>86638.999999899999</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="A430">
-            <v>3582.5</v>
-          </cell>
-          <cell r="C430">
-            <v>12050221.25</v>
-          </cell>
-          <cell r="D430">
-            <v>86882</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="A431">
-            <v>3583</v>
-          </cell>
-          <cell r="C431">
-            <v>12093723</v>
-          </cell>
-          <cell r="D431">
-            <v>87125.000000100001</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="A432">
-            <v>3583.5</v>
-          </cell>
-          <cell r="C432">
-            <v>12137346.25</v>
-          </cell>
-          <cell r="D432">
-            <v>87367.999999899999</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="A433">
-            <v>3584</v>
-          </cell>
-          <cell r="C433">
-            <v>12181091</v>
-          </cell>
-          <cell r="D433">
-            <v>87611</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="A434">
-            <v>3584.5</v>
-          </cell>
-          <cell r="C434">
-            <v>12224957.25</v>
-          </cell>
-          <cell r="D434">
-            <v>87854.000000100001</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="A435">
-            <v>3585</v>
-          </cell>
-          <cell r="C435">
-            <v>12268945</v>
-          </cell>
-          <cell r="D435">
-            <v>88097</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="A436">
-            <v>3585.5</v>
-          </cell>
-          <cell r="C436">
-            <v>12313054.25</v>
-          </cell>
-          <cell r="D436">
-            <v>88340</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="A437">
-            <v>3586</v>
-          </cell>
-          <cell r="C437">
-            <v>12357285</v>
-          </cell>
-          <cell r="D437">
-            <v>88582.999999899999</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="A438">
-            <v>3586.5</v>
-          </cell>
-          <cell r="C438">
-            <v>12401637.25</v>
-          </cell>
-          <cell r="D438">
-            <v>88826</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="A439">
-            <v>3587</v>
-          </cell>
-          <cell r="C439">
-            <v>12446111</v>
-          </cell>
-          <cell r="D439">
-            <v>89069.000000100001</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="A440">
-            <v>3587.5</v>
-          </cell>
-          <cell r="C440">
-            <v>12490706.25</v>
-          </cell>
-          <cell r="D440">
-            <v>89311.999999899999</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="A441">
-            <v>3588</v>
-          </cell>
-          <cell r="C441">
-            <v>12535423</v>
-          </cell>
-          <cell r="D441">
-            <v>89555</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="A442">
-            <v>3588.5</v>
-          </cell>
-          <cell r="C442">
-            <v>12580261.25</v>
-          </cell>
-          <cell r="D442">
-            <v>89798.000000100001</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="A443">
-            <v>3589</v>
-          </cell>
-          <cell r="C443">
-            <v>12625221</v>
-          </cell>
-          <cell r="D443">
-            <v>90040.999999899999</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="A444">
-            <v>3589.5</v>
-          </cell>
-          <cell r="C444">
-            <v>12670302.25</v>
-          </cell>
-          <cell r="D444">
-            <v>90284</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="A445">
-            <v>3590</v>
-          </cell>
-          <cell r="C445">
-            <v>12715505</v>
-          </cell>
-          <cell r="D445">
-            <v>90527.000000100001</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="A446">
-            <v>3590.5</v>
-          </cell>
-          <cell r="C446">
-            <v>12760829.25</v>
-          </cell>
-          <cell r="D446">
-            <v>90769.999999899999</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="A447">
-            <v>3591</v>
-          </cell>
-          <cell r="C447">
-            <v>12806275</v>
-          </cell>
-          <cell r="D447">
-            <v>91013</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="A448">
-            <v>3591.5</v>
-          </cell>
-          <cell r="C448">
-            <v>12851842.25</v>
-          </cell>
-          <cell r="D448">
-            <v>91256.000000100001</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="A449">
-            <v>3592</v>
-          </cell>
-          <cell r="C449">
-            <v>12897531</v>
-          </cell>
-          <cell r="D449">
-            <v>91499</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="A450">
-            <v>3592.5</v>
-          </cell>
-          <cell r="C450">
-            <v>12943341.25</v>
-          </cell>
-          <cell r="D450">
-            <v>91742</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="A451">
-            <v>3593</v>
-          </cell>
-          <cell r="C451">
-            <v>12989273</v>
-          </cell>
-          <cell r="D451">
-            <v>91984.999999899999</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="A452">
-            <v>3593.5</v>
-          </cell>
-          <cell r="C452">
-            <v>13035326.25</v>
-          </cell>
-          <cell r="D452">
-            <v>92228</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="A453">
-            <v>3594</v>
-          </cell>
-          <cell r="C453">
-            <v>13081501</v>
-          </cell>
-          <cell r="D453">
-            <v>92471.000000100001</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="A454">
-            <v>3594.5</v>
-          </cell>
-          <cell r="C454">
-            <v>13127797.25</v>
-          </cell>
-          <cell r="D454">
-            <v>92713.999999899999</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="A455">
-            <v>3595</v>
-          </cell>
-          <cell r="C455">
-            <v>13174215</v>
-          </cell>
-          <cell r="D455">
-            <v>92957</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="A456">
-            <v>3595.5</v>
-          </cell>
-          <cell r="C456">
-            <v>13220754.25</v>
-          </cell>
-          <cell r="D456">
-            <v>93200.000000100001</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="A457">
-            <v>3596</v>
-          </cell>
-          <cell r="C457">
-            <v>13267415</v>
-          </cell>
-          <cell r="D457">
-            <v>93442.999999899999</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="A458">
-            <v>3596.5</v>
-          </cell>
-          <cell r="C458">
-            <v>13314197.25</v>
-          </cell>
-          <cell r="D458">
-            <v>93686</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="A459">
-            <v>3597</v>
-          </cell>
-          <cell r="C459">
-            <v>13361101</v>
-          </cell>
-          <cell r="D459">
-            <v>93929.000000100001</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="A460">
-            <v>3597.5</v>
-          </cell>
-          <cell r="C460">
-            <v>13408126.25</v>
-          </cell>
-          <cell r="D460">
-            <v>94171.999999899999</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="A461">
-            <v>3598</v>
-          </cell>
-          <cell r="C461">
-            <v>13455273</v>
-          </cell>
-          <cell r="D461">
-            <v>94415</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="A462">
-            <v>3598.5</v>
-          </cell>
-          <cell r="C462">
-            <v>13502541.25</v>
-          </cell>
-          <cell r="D462">
-            <v>94658.000000100001</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="A463">
-            <v>3599</v>
-          </cell>
-          <cell r="C463">
-            <v>13549931</v>
-          </cell>
-          <cell r="D463">
-            <v>94901</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="A464">
-            <v>3599.5</v>
-          </cell>
-          <cell r="C464">
-            <v>13597442.25</v>
-          </cell>
-          <cell r="D464">
-            <v>95144</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="A465">
-            <v>3600</v>
-          </cell>
-          <cell r="C465">
-            <v>13645075</v>
-          </cell>
-          <cell r="D465">
-            <v>95386.999999899999</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="A466">
-            <v>3600.5</v>
-          </cell>
-          <cell r="C466">
-            <v>13692834.390000001</v>
-          </cell>
-          <cell r="D466">
-            <v>95650.550000100004</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="A467">
-            <v>3601</v>
-          </cell>
-          <cell r="C467">
-            <v>13740725.550000001</v>
-          </cell>
-          <cell r="D467">
-            <v>95914.100000100007</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="A468">
-            <v>3601.5</v>
-          </cell>
-          <cell r="C468">
-            <v>13788748.49</v>
-          </cell>
-          <cell r="D468">
-            <v>96177.65</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="A469">
-            <v>3602</v>
-          </cell>
-          <cell r="C469">
-            <v>13836903.199999999</v>
-          </cell>
-          <cell r="D469">
-            <v>96441.2</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="A470">
-            <v>3602.5</v>
-          </cell>
-          <cell r="C470">
-            <v>13885189.689999999</v>
-          </cell>
-          <cell r="D470">
-            <v>96704.75</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="A471">
-            <v>3603</v>
-          </cell>
-          <cell r="C471">
-            <v>13933607.949999999</v>
-          </cell>
-          <cell r="D471">
-            <v>96968.299999900002</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="A472">
-            <v>3603.5</v>
-          </cell>
-          <cell r="C472">
-            <v>13982157.99</v>
-          </cell>
-          <cell r="D472">
-            <v>97231.849999900005</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="A473">
-            <v>3604</v>
-          </cell>
-          <cell r="C473">
-            <v>14030839.800000001</v>
-          </cell>
-          <cell r="D473">
-            <v>97495.399999899993</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="A474">
-            <v>3604.5</v>
-          </cell>
-          <cell r="C474">
-            <v>14079653.390000001</v>
-          </cell>
-          <cell r="D474">
-            <v>97758.950000099998</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="A475">
-            <v>3605</v>
-          </cell>
-          <cell r="C475">
-            <v>14128598.75</v>
-          </cell>
-          <cell r="D475">
-            <v>98022.500000100001</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="A476">
-            <v>3605.5</v>
-          </cell>
-          <cell r="C476">
-            <v>14177675.890000001</v>
-          </cell>
-          <cell r="D476">
-            <v>98286.05</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="A477">
-            <v>3606</v>
-          </cell>
-          <cell r="C477">
-            <v>14226884.800000001</v>
-          </cell>
-          <cell r="D477">
-            <v>98549.6</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="A478">
-            <v>3606.5</v>
-          </cell>
-          <cell r="C478">
-            <v>14276225.49</v>
-          </cell>
-          <cell r="D478">
-            <v>98813.15</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="A479">
-            <v>3607</v>
-          </cell>
-          <cell r="C479">
-            <v>14325697.949999999</v>
-          </cell>
-          <cell r="D479">
-            <v>99076.7</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="A480">
-            <v>3607.5</v>
-          </cell>
-          <cell r="C480">
-            <v>14375302.189999999</v>
-          </cell>
-          <cell r="D480">
-            <v>99340.249999899999</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="A481">
-            <v>3608</v>
-          </cell>
-          <cell r="C481">
-            <v>14425038.199999999</v>
-          </cell>
-          <cell r="D481">
-            <v>99603.799999900002</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="A482">
-            <v>3608.5</v>
-          </cell>
-          <cell r="C482">
-            <v>14474905.99</v>
-          </cell>
-          <cell r="D482">
-            <v>99867.350000100007</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="A483">
-            <v>3609</v>
-          </cell>
-          <cell r="C483">
-            <v>14524905.550000001</v>
-          </cell>
-          <cell r="D483">
-            <v>100130.9</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="A484">
-            <v>3609.5</v>
-          </cell>
-          <cell r="C484">
-            <v>14575036.890000001</v>
-          </cell>
-          <cell r="D484">
-            <v>100394.45</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="A485">
-            <v>3610</v>
-          </cell>
-          <cell r="C485">
-            <v>14625300</v>
-          </cell>
-          <cell r="D485">
-            <v>100658</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="A486">
-            <v>3610.5</v>
-          </cell>
-          <cell r="C486">
-            <v>14675694.890000001</v>
-          </cell>
-          <cell r="D486">
-            <v>100921.55</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="A487">
-            <v>3611</v>
-          </cell>
-          <cell r="C487">
-            <v>14726221.550000001</v>
-          </cell>
-          <cell r="D487">
-            <v>101185.1</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="A488">
-            <v>3611.5</v>
-          </cell>
-          <cell r="C488">
-            <v>14776879.99</v>
-          </cell>
-          <cell r="D488">
-            <v>101448.65</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="A489">
-            <v>3612</v>
-          </cell>
-          <cell r="C489">
-            <v>14827670.199999999</v>
-          </cell>
-          <cell r="D489">
-            <v>101712.2</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="A490">
-            <v>3612.5</v>
-          </cell>
-          <cell r="C490">
-            <v>14878592.189999999</v>
-          </cell>
-          <cell r="D490">
-            <v>101975.75</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="A491">
-            <v>3613</v>
-          </cell>
-          <cell r="C491">
-            <v>14929645.949999999</v>
-          </cell>
-          <cell r="D491">
-            <v>102239.3</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="A492">
-            <v>3613.5</v>
-          </cell>
-          <cell r="C492">
-            <v>14980831.49</v>
-          </cell>
-          <cell r="D492">
-            <v>102502.85</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="A493">
-            <v>3614</v>
-          </cell>
-          <cell r="C493">
-            <v>15032148.800000001</v>
-          </cell>
-          <cell r="D493">
-            <v>102766.39999999999</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="A494">
-            <v>3614.5</v>
-          </cell>
-          <cell r="C494">
-            <v>15083597.890000001</v>
-          </cell>
-          <cell r="D494">
-            <v>103029.95</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="A495">
-            <v>3615</v>
-          </cell>
-          <cell r="C495">
-            <v>15135178.75</v>
-          </cell>
-          <cell r="D495">
-            <v>103293.5</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="A496">
-            <v>3615.5</v>
-          </cell>
-          <cell r="C496">
-            <v>15186891.390000001</v>
-          </cell>
-          <cell r="D496">
-            <v>103557.05</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="A497">
-            <v>3616</v>
-          </cell>
-          <cell r="C497">
-            <v>15238735.800000001</v>
-          </cell>
-          <cell r="D497">
-            <v>103820.6</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="A498">
-            <v>3616.5</v>
-          </cell>
-          <cell r="C498">
-            <v>15290711.99</v>
-          </cell>
-          <cell r="D498">
-            <v>104084.15</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="A499">
-            <v>3617</v>
-          </cell>
-          <cell r="C499">
-            <v>15342819.949999999</v>
-          </cell>
-          <cell r="D499">
-            <v>104347.7</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="A500">
-            <v>3617.5</v>
-          </cell>
-          <cell r="C500">
-            <v>15395059.689999999</v>
-          </cell>
-          <cell r="D500">
-            <v>104611.25</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="A501">
-            <v>3618</v>
-          </cell>
-          <cell r="C501">
-            <v>15447431.199999999</v>
-          </cell>
-          <cell r="D501">
-            <v>104874.8</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="A502">
-            <v>3618.5</v>
-          </cell>
-          <cell r="C502">
-            <v>15499934.49</v>
-          </cell>
-          <cell r="D502">
-            <v>105138.35</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="A503">
-            <v>3619</v>
-          </cell>
-          <cell r="C503">
-            <v>15552569.550000001</v>
-          </cell>
-          <cell r="D503">
-            <v>105401.9</v>
-          </cell>
-        </row>
-        <row r="504">
-          <cell r="A504">
-            <v>3619.5</v>
-          </cell>
-          <cell r="C504">
-            <v>15605336.390000001</v>
-          </cell>
-          <cell r="D504">
-            <v>105665.45</v>
-          </cell>
-        </row>
-        <row r="505">
-          <cell r="A505">
-            <v>3620</v>
-          </cell>
-          <cell r="C505">
-            <v>15658235</v>
-          </cell>
-          <cell r="D505">
-            <v>105929</v>
-          </cell>
-        </row>
-        <row r="506">
-          <cell r="A506">
-            <v>3620.5</v>
-          </cell>
-          <cell r="C506">
-            <v>15711275.279999999</v>
-          </cell>
-          <cell r="D506">
-            <v>106232.12</v>
-          </cell>
-        </row>
-        <row r="507">
-          <cell r="A507">
-            <v>3621</v>
-          </cell>
-          <cell r="C507">
-            <v>15764467.119999999</v>
-          </cell>
-          <cell r="D507">
-            <v>106535.25</v>
-          </cell>
-        </row>
-        <row r="508">
-          <cell r="A508">
-            <v>3621.5</v>
-          </cell>
-          <cell r="C508">
-            <v>15817810.529999999</v>
-          </cell>
-          <cell r="D508">
-            <v>106838.37</v>
-          </cell>
-        </row>
-        <row r="509">
-          <cell r="A509">
-            <v>3622</v>
-          </cell>
-          <cell r="C509">
-            <v>15871305.5</v>
-          </cell>
-          <cell r="D509">
-            <v>107141.5</v>
-          </cell>
-        </row>
-        <row r="510">
-          <cell r="A510">
-            <v>3622.5</v>
-          </cell>
-          <cell r="C510">
-            <v>15924952.029999999</v>
-          </cell>
-          <cell r="D510">
-            <v>107444.62</v>
-          </cell>
-        </row>
-        <row r="511">
-          <cell r="A511">
-            <v>3623</v>
-          </cell>
-          <cell r="C511">
-            <v>15978750.119999999</v>
-          </cell>
-          <cell r="D511">
-            <v>107747.75</v>
-          </cell>
-        </row>
-        <row r="512">
-          <cell r="A512">
-            <v>3623.5</v>
-          </cell>
-          <cell r="C512">
-            <v>16032699.779999999</v>
-          </cell>
-          <cell r="D512">
-            <v>108050.87</v>
-          </cell>
-        </row>
-        <row r="513">
-          <cell r="A513">
-            <v>3624</v>
-          </cell>
-          <cell r="C513">
-            <v>16086801</v>
-          </cell>
-          <cell r="D513">
-            <v>108354</v>
-          </cell>
-        </row>
-        <row r="514">
-          <cell r="A514">
-            <v>3624.5</v>
-          </cell>
-          <cell r="C514">
-            <v>16141053.779999999</v>
-          </cell>
-          <cell r="D514">
-            <v>108657.12</v>
-          </cell>
-        </row>
-        <row r="515">
-          <cell r="A515">
-            <v>3625</v>
-          </cell>
-          <cell r="C515">
-            <v>16195458.119999999</v>
-          </cell>
-          <cell r="D515">
-            <v>108960.25</v>
-          </cell>
-        </row>
-        <row r="516">
-          <cell r="A516">
-            <v>3625.5</v>
-          </cell>
-          <cell r="C516">
-            <v>16250014.029999999</v>
-          </cell>
-          <cell r="D516">
-            <v>109263.37</v>
-          </cell>
-        </row>
-        <row r="517">
-          <cell r="A517">
-            <v>3626</v>
-          </cell>
-          <cell r="C517">
-            <v>16304721.5</v>
-          </cell>
-          <cell r="D517">
-            <v>109566.5</v>
-          </cell>
-        </row>
-        <row r="518">
-          <cell r="A518">
-            <v>3626.5</v>
-          </cell>
-          <cell r="C518">
-            <v>16359580.529999999</v>
-          </cell>
-          <cell r="D518">
-            <v>109869.62</v>
-          </cell>
-        </row>
-        <row r="519">
-          <cell r="A519">
-            <v>3627</v>
-          </cell>
-          <cell r="C519">
-            <v>16414591.119999999</v>
-          </cell>
-          <cell r="D519">
-            <v>110172.75</v>
-          </cell>
-        </row>
-        <row r="520">
-          <cell r="A520">
-            <v>3627.5</v>
-          </cell>
-          <cell r="C520">
-            <v>16469753.279999999</v>
-          </cell>
-          <cell r="D520">
-            <v>110475.87</v>
-          </cell>
-        </row>
-        <row r="521">
-          <cell r="A521">
-            <v>3628</v>
-          </cell>
-          <cell r="C521">
-            <v>16525067</v>
-          </cell>
-          <cell r="D521">
-            <v>110779</v>
-          </cell>
-        </row>
-        <row r="522">
-          <cell r="A522">
-            <v>3628.5</v>
-          </cell>
-          <cell r="C522">
-            <v>16580532.279999999</v>
-          </cell>
-          <cell r="D522">
-            <v>111082.12</v>
-          </cell>
-        </row>
-        <row r="523">
-          <cell r="A523">
-            <v>3629</v>
-          </cell>
-          <cell r="C523">
-            <v>16636149.119999999</v>
-          </cell>
-          <cell r="D523">
-            <v>111385.25</v>
-          </cell>
-        </row>
-        <row r="524">
-          <cell r="A524">
-            <v>3629.5</v>
-          </cell>
-          <cell r="C524">
-            <v>16691917.529999999</v>
-          </cell>
-          <cell r="D524">
-            <v>111688.37</v>
-          </cell>
-        </row>
-        <row r="525">
-          <cell r="A525">
-            <v>3630</v>
-          </cell>
-          <cell r="C525">
-            <v>16747837.5</v>
-          </cell>
-          <cell r="D525">
-            <v>111991.5</v>
-          </cell>
-        </row>
-        <row r="526">
-          <cell r="A526">
-            <v>3630.5</v>
-          </cell>
-          <cell r="C526">
-            <v>16803909.030000001</v>
-          </cell>
-          <cell r="D526">
-            <v>112294.62</v>
-          </cell>
-        </row>
-        <row r="527">
-          <cell r="A527">
-            <v>3631</v>
-          </cell>
-          <cell r="C527">
-            <v>16860132.119999997</v>
-          </cell>
-          <cell r="D527">
-            <v>112597.75</v>
-          </cell>
-        </row>
-        <row r="528">
-          <cell r="A528">
-            <v>3631.5</v>
-          </cell>
-          <cell r="C528">
-            <v>16916506.780000001</v>
-          </cell>
-          <cell r="D528">
-            <v>112900.87</v>
-          </cell>
-        </row>
-        <row r="529">
-          <cell r="A529">
-            <v>3632</v>
-          </cell>
-          <cell r="C529">
-            <v>16973033</v>
-          </cell>
-          <cell r="D529">
-            <v>113204</v>
-          </cell>
-        </row>
-        <row r="530">
-          <cell r="A530">
-            <v>3632.5</v>
-          </cell>
-          <cell r="C530">
-            <v>17029710.780000001</v>
-          </cell>
-          <cell r="D530">
-            <v>113507.12</v>
-          </cell>
-        </row>
-        <row r="531">
-          <cell r="A531">
-            <v>3633</v>
-          </cell>
-          <cell r="C531">
-            <v>17086540.119999997</v>
-          </cell>
-          <cell r="D531">
-            <v>113810.25</v>
-          </cell>
-        </row>
-        <row r="532">
-          <cell r="A532">
-            <v>3633.5</v>
-          </cell>
-          <cell r="C532">
-            <v>17143521.030000001</v>
-          </cell>
-          <cell r="D532">
-            <v>114113.37</v>
-          </cell>
-        </row>
-        <row r="533">
-          <cell r="A533">
-            <v>3634</v>
-          </cell>
-          <cell r="C533">
-            <v>17200653.5</v>
-          </cell>
-          <cell r="D533">
-            <v>114416.5</v>
-          </cell>
-        </row>
-        <row r="534">
-          <cell r="A534">
-            <v>3634.5</v>
-          </cell>
-          <cell r="C534">
-            <v>17257937.530000001</v>
-          </cell>
-          <cell r="D534">
-            <v>114719.62</v>
-          </cell>
-        </row>
-        <row r="535">
-          <cell r="A535">
-            <v>3635</v>
-          </cell>
-          <cell r="C535">
-            <v>17315373.119999997</v>
-          </cell>
-          <cell r="D535">
-            <v>115022.75</v>
-          </cell>
-        </row>
-        <row r="536">
-          <cell r="A536">
-            <v>3635.5</v>
-          </cell>
-          <cell r="C536">
-            <v>17372960.280000001</v>
-          </cell>
-          <cell r="D536">
-            <v>115325.87</v>
-          </cell>
-        </row>
-        <row r="537">
-          <cell r="A537">
-            <v>3636</v>
-          </cell>
-          <cell r="C537">
-            <v>17430699</v>
-          </cell>
-          <cell r="D537">
-            <v>115629</v>
-          </cell>
-        </row>
-        <row r="538">
-          <cell r="A538">
-            <v>3636.5</v>
-          </cell>
-          <cell r="C538">
-            <v>17488589.280000001</v>
-          </cell>
-          <cell r="D538">
-            <v>115932.12</v>
-          </cell>
-        </row>
-        <row r="539">
-          <cell r="A539">
-            <v>3637</v>
-          </cell>
-          <cell r="C539">
-            <v>17546631.119999997</v>
-          </cell>
-          <cell r="D539">
-            <v>116235.25</v>
-          </cell>
-        </row>
-        <row r="540">
-          <cell r="A540">
-            <v>3637.5</v>
-          </cell>
-          <cell r="C540">
-            <v>17604824.530000001</v>
-          </cell>
-          <cell r="D540">
-            <v>116538.37</v>
-          </cell>
-        </row>
-        <row r="541">
-          <cell r="A541">
-            <v>3638</v>
-          </cell>
-          <cell r="C541">
-            <v>17663169.5</v>
-          </cell>
-          <cell r="D541">
-            <v>116841.5</v>
-          </cell>
-        </row>
-        <row r="542">
-          <cell r="A542">
-            <v>3638.5</v>
-          </cell>
-          <cell r="C542">
-            <v>17721666.030000001</v>
-          </cell>
-          <cell r="D542">
-            <v>117144.62</v>
-          </cell>
-        </row>
-        <row r="543">
-          <cell r="A543">
-            <v>3639</v>
-          </cell>
-          <cell r="C543">
-            <v>17780314.119999997</v>
-          </cell>
-          <cell r="D543">
-            <v>117447.75</v>
-          </cell>
-        </row>
-        <row r="544">
-          <cell r="A544">
-            <v>3639.5</v>
-          </cell>
-          <cell r="C544">
-            <v>17839113.780000001</v>
-          </cell>
-          <cell r="D544">
-            <v>117750.87</v>
-          </cell>
-        </row>
-        <row r="545">
-          <cell r="A545">
-            <v>3640</v>
-          </cell>
-          <cell r="C545">
-            <v>17898065</v>
-          </cell>
-          <cell r="D545">
-            <v>118054</v>
-          </cell>
-        </row>
-        <row r="546">
-          <cell r="A546">
-            <v>3640.5</v>
-          </cell>
-          <cell r="C546">
-            <v>17957172.280000001</v>
-          </cell>
-          <cell r="D546">
-            <v>118375.12</v>
-          </cell>
-        </row>
-        <row r="547">
-          <cell r="A547">
-            <v>3641</v>
-          </cell>
-          <cell r="C547">
-            <v>18016440.119999997</v>
-          </cell>
-          <cell r="D547">
-            <v>118696.25</v>
-          </cell>
-        </row>
-        <row r="548">
-          <cell r="A548">
-            <v>3641.5</v>
-          </cell>
-          <cell r="C548">
-            <v>18075868.530000001</v>
-          </cell>
-          <cell r="D548">
-            <v>119017.37</v>
-          </cell>
-        </row>
-        <row r="549">
-          <cell r="A549">
-            <v>3642</v>
-          </cell>
-          <cell r="C549">
-            <v>18135457.5</v>
-          </cell>
-          <cell r="D549">
-            <v>119338.5</v>
-          </cell>
-        </row>
-        <row r="550">
-          <cell r="A550">
-            <v>3642.5</v>
-          </cell>
-          <cell r="C550">
-            <v>18195207.030000001</v>
-          </cell>
-          <cell r="D550">
-            <v>119659.62</v>
-          </cell>
-        </row>
-        <row r="551">
-          <cell r="A551">
-            <v>3643</v>
-          </cell>
-          <cell r="C551">
-            <v>18255117.119999997</v>
-          </cell>
-          <cell r="D551">
-            <v>119980.75</v>
-          </cell>
-        </row>
-        <row r="552">
-          <cell r="A552">
-            <v>3643.5</v>
-          </cell>
-          <cell r="C552">
-            <v>18315187.780000001</v>
-          </cell>
-          <cell r="D552">
-            <v>120301.87</v>
-          </cell>
-        </row>
-        <row r="553">
-          <cell r="A553">
-            <v>3644</v>
-          </cell>
-          <cell r="C553">
-            <v>18375419</v>
-          </cell>
-          <cell r="D553">
-            <v>120623</v>
-          </cell>
-        </row>
-        <row r="554">
-          <cell r="A554">
-            <v>3644.5</v>
-          </cell>
-          <cell r="C554">
-            <v>18435810.780000001</v>
-          </cell>
-          <cell r="D554">
-            <v>120944.12</v>
-          </cell>
-        </row>
-        <row r="555">
-          <cell r="A555">
-            <v>3645</v>
-          </cell>
-          <cell r="C555">
-            <v>18496363.119999997</v>
-          </cell>
-          <cell r="D555">
-            <v>121265.25</v>
-          </cell>
-        </row>
-        <row r="556">
-          <cell r="A556">
-            <v>3645.5</v>
-          </cell>
-          <cell r="C556">
-            <v>18557076.030000001</v>
-          </cell>
-          <cell r="D556">
-            <v>121586.37</v>
-          </cell>
-        </row>
-        <row r="557">
-          <cell r="A557">
-            <v>3646</v>
-          </cell>
-          <cell r="C557">
-            <v>18617949.5</v>
-          </cell>
-          <cell r="D557">
-            <v>121907.5</v>
-          </cell>
-        </row>
-        <row r="558">
-          <cell r="A558">
-            <v>3646.5</v>
-          </cell>
-          <cell r="C558">
-            <v>18678983.530000001</v>
-          </cell>
-          <cell r="D558">
-            <v>122228.62</v>
-          </cell>
-        </row>
-        <row r="559">
-          <cell r="A559">
-            <v>3647</v>
-          </cell>
-          <cell r="C559">
-            <v>18740178.120000001</v>
-          </cell>
-          <cell r="D559">
-            <v>122549.75</v>
-          </cell>
-        </row>
-        <row r="560">
-          <cell r="A560">
-            <v>3647.5</v>
-          </cell>
-          <cell r="C560">
-            <v>18801533.280000001</v>
-          </cell>
-          <cell r="D560">
-            <v>122870.87</v>
-          </cell>
-        </row>
-        <row r="561">
-          <cell r="A561">
-            <v>3648</v>
-          </cell>
-          <cell r="C561">
-            <v>18863049</v>
-          </cell>
-          <cell r="D561">
-            <v>123192</v>
-          </cell>
-        </row>
-        <row r="562">
-          <cell r="A562">
-            <v>3648.5</v>
-          </cell>
-          <cell r="C562">
-            <v>18924725.280000001</v>
-          </cell>
-          <cell r="D562">
-            <v>123513.12</v>
-          </cell>
-        </row>
-        <row r="563">
-          <cell r="A563">
-            <v>3649</v>
-          </cell>
-          <cell r="C563">
-            <v>18986562.120000001</v>
-          </cell>
-          <cell r="D563">
-            <v>123834.25</v>
-          </cell>
-        </row>
-        <row r="564">
-          <cell r="A564">
-            <v>3649.5</v>
-          </cell>
-          <cell r="C564">
-            <v>19048559.530000001</v>
-          </cell>
-          <cell r="D564">
-            <v>124155.37</v>
-          </cell>
-        </row>
-        <row r="565">
-          <cell r="A565">
-            <v>3650</v>
-          </cell>
-          <cell r="C565">
-            <v>19110717.5</v>
-          </cell>
-          <cell r="D565">
-            <v>124476.5</v>
-          </cell>
-        </row>
-        <row r="566">
-          <cell r="A566">
-            <v>3650.5</v>
-          </cell>
-          <cell r="C566">
-            <v>19173036.030000001</v>
-          </cell>
-          <cell r="D566">
-            <v>124797.62</v>
-          </cell>
-        </row>
-        <row r="567">
-          <cell r="A567">
-            <v>3651</v>
-          </cell>
-          <cell r="C567">
-            <v>19235515.120000001</v>
-          </cell>
-          <cell r="D567">
-            <v>125118.75</v>
-          </cell>
-        </row>
-        <row r="568">
-          <cell r="A568">
-            <v>3651.5</v>
-          </cell>
-          <cell r="C568">
-            <v>19298154.780000001</v>
-          </cell>
-          <cell r="D568">
-            <v>125439.87</v>
-          </cell>
-        </row>
-        <row r="569">
-          <cell r="A569">
-            <v>3652</v>
-          </cell>
-          <cell r="C569">
-            <v>19360955</v>
-          </cell>
-          <cell r="D569">
-            <v>125761</v>
-          </cell>
-        </row>
-        <row r="570">
-          <cell r="A570">
-            <v>3652.5</v>
-          </cell>
-          <cell r="C570">
-            <v>19423915.780000001</v>
-          </cell>
-          <cell r="D570">
-            <v>126082.12</v>
-          </cell>
-        </row>
-        <row r="571">
-          <cell r="A571">
-            <v>3653</v>
-          </cell>
-          <cell r="C571">
-            <v>19487037.120000001</v>
-          </cell>
-          <cell r="D571">
-            <v>126403.25</v>
-          </cell>
-        </row>
-        <row r="572">
-          <cell r="A572">
-            <v>3653.5</v>
-          </cell>
-          <cell r="C572">
-            <v>19550319.030000001</v>
-          </cell>
-          <cell r="D572">
-            <v>126724.37</v>
-          </cell>
-        </row>
-        <row r="573">
-          <cell r="A573">
-            <v>3654</v>
-          </cell>
-          <cell r="C573">
-            <v>19613761.5</v>
-          </cell>
-          <cell r="D573">
-            <v>127045.5</v>
-          </cell>
-        </row>
-        <row r="574">
-          <cell r="A574">
-            <v>3654.5</v>
-          </cell>
-          <cell r="C574">
-            <v>19677364.530000001</v>
-          </cell>
-          <cell r="D574">
-            <v>127366.62</v>
-          </cell>
-        </row>
-        <row r="575">
-          <cell r="A575">
-            <v>3655</v>
-          </cell>
-          <cell r="C575">
-            <v>19741128.120000001</v>
-          </cell>
-          <cell r="D575">
-            <v>127687.75</v>
-          </cell>
-        </row>
-        <row r="576">
-          <cell r="A576">
-            <v>3655.5</v>
-          </cell>
-          <cell r="C576">
-            <v>19805052.280000001</v>
-          </cell>
-          <cell r="D576">
-            <v>128008.87</v>
-          </cell>
-        </row>
-        <row r="577">
-          <cell r="A577">
-            <v>3656</v>
-          </cell>
-          <cell r="C577">
-            <v>19869137</v>
-          </cell>
-          <cell r="D577">
-            <v>128330</v>
-          </cell>
-        </row>
-        <row r="578">
-          <cell r="A578">
-            <v>3656.5</v>
-          </cell>
-          <cell r="C578">
-            <v>19933382.280000001</v>
-          </cell>
-          <cell r="D578">
-            <v>128651.12</v>
-          </cell>
-        </row>
-        <row r="579">
-          <cell r="A579">
-            <v>3657</v>
-          </cell>
-          <cell r="C579">
-            <v>19997788.120000001</v>
-          </cell>
-          <cell r="D579">
-            <v>128972.25</v>
-          </cell>
-        </row>
-        <row r="580">
-          <cell r="A580">
-            <v>3657.5</v>
-          </cell>
-          <cell r="C580">
-            <v>20062354.530000001</v>
-          </cell>
-          <cell r="D580">
-            <v>129293.37</v>
-          </cell>
-        </row>
-        <row r="581">
-          <cell r="A581">
-            <v>3658</v>
-          </cell>
-          <cell r="C581">
-            <v>20127081.5</v>
-          </cell>
-          <cell r="D581">
-            <v>129614.5</v>
-          </cell>
-        </row>
-        <row r="582">
-          <cell r="A582">
-            <v>3658.5</v>
-          </cell>
-          <cell r="C582">
-            <v>20191969.030000001</v>
-          </cell>
-          <cell r="D582">
-            <v>129935.62</v>
-          </cell>
-        </row>
-        <row r="583">
-          <cell r="A583">
-            <v>3659</v>
-          </cell>
-          <cell r="C583">
-            <v>20257017.120000001</v>
-          </cell>
-          <cell r="D583">
-            <v>130256.75</v>
-          </cell>
-        </row>
-        <row r="584">
-          <cell r="A584">
-            <v>3659.5</v>
-          </cell>
-          <cell r="C584">
-            <v>20322225.780000001</v>
-          </cell>
-          <cell r="D584">
-            <v>130577.87</v>
-          </cell>
-        </row>
-        <row r="585">
-          <cell r="A585">
-            <v>3660</v>
-          </cell>
-          <cell r="C585">
-            <v>20387595</v>
-          </cell>
-          <cell r="D585">
-            <v>130899</v>
-          </cell>
-        </row>
-        <row r="586">
-          <cell r="A586">
-            <v>3660.5</v>
-          </cell>
-          <cell r="C586">
-            <v>20453136.670000002</v>
-          </cell>
-          <cell r="D586">
-            <v>131267.70000000001</v>
-          </cell>
-        </row>
-        <row r="587">
-          <cell r="A587">
-            <v>3661</v>
-          </cell>
-          <cell r="C587">
-            <v>20518862.699999999</v>
-          </cell>
-          <cell r="D587">
-            <v>131636.4</v>
-          </cell>
-        </row>
-        <row r="588">
-          <cell r="A588">
-            <v>3661.5</v>
-          </cell>
-          <cell r="C588">
-            <v>20584773.07</v>
-          </cell>
-          <cell r="D588">
-            <v>132005.1</v>
-          </cell>
-        </row>
-        <row r="589">
-          <cell r="A589">
-            <v>3662</v>
-          </cell>
-          <cell r="C589">
-            <v>20650867.800000001</v>
-          </cell>
-          <cell r="D589">
-            <v>132373.79999999999</v>
-          </cell>
-        </row>
-        <row r="590">
-          <cell r="A590">
-            <v>3662.5</v>
-          </cell>
-          <cell r="C590">
-            <v>20717146.870000001</v>
-          </cell>
-          <cell r="D590">
-            <v>132742.5</v>
-          </cell>
-        </row>
-        <row r="591">
-          <cell r="A591">
-            <v>3663</v>
-          </cell>
-          <cell r="C591">
-            <v>20783610.300000001</v>
-          </cell>
-          <cell r="D591">
-            <v>133111.20000000001</v>
-          </cell>
-        </row>
-        <row r="592">
-          <cell r="A592">
-            <v>3663.5</v>
-          </cell>
-          <cell r="C592">
-            <v>20850258.07</v>
-          </cell>
-          <cell r="D592">
-            <v>133479.9</v>
-          </cell>
-        </row>
-        <row r="593">
-          <cell r="A593">
-            <v>3664</v>
-          </cell>
-          <cell r="C593">
-            <v>20917090.199999999</v>
-          </cell>
-          <cell r="D593">
-            <v>133848.6</v>
-          </cell>
-        </row>
-        <row r="594">
-          <cell r="A594">
-            <v>3664.5</v>
-          </cell>
-          <cell r="C594">
-            <v>20984106.670000002</v>
-          </cell>
-          <cell r="D594">
-            <v>134217.29999999999</v>
-          </cell>
-        </row>
-        <row r="595">
-          <cell r="A595">
-            <v>3665</v>
-          </cell>
-          <cell r="C595">
-            <v>21051307.5</v>
-          </cell>
-          <cell r="D595">
-            <v>134586</v>
-          </cell>
-        </row>
-        <row r="596">
-          <cell r="A596">
-            <v>3665.5</v>
-          </cell>
-          <cell r="C596">
-            <v>21118692.670000002</v>
-          </cell>
-          <cell r="D596">
-            <v>134954.70000000001</v>
-          </cell>
-        </row>
-        <row r="597">
-          <cell r="A597">
-            <v>3666</v>
-          </cell>
-          <cell r="C597">
-            <v>21186262.199999999</v>
-          </cell>
-          <cell r="D597">
-            <v>135323.4</v>
-          </cell>
-        </row>
-        <row r="598">
-          <cell r="A598">
-            <v>3666.5</v>
-          </cell>
-          <cell r="C598">
-            <v>21254016.07</v>
-          </cell>
-          <cell r="D598">
-            <v>135692.1</v>
-          </cell>
-        </row>
-        <row r="599">
-          <cell r="A599">
-            <v>3667</v>
-          </cell>
-          <cell r="C599">
-            <v>21321954.300000001</v>
-          </cell>
-          <cell r="D599">
-            <v>136060.79999999999</v>
-          </cell>
-        </row>
-        <row r="600">
-          <cell r="A600">
-            <v>3667.5</v>
-          </cell>
-          <cell r="C600">
-            <v>21390076.870000001</v>
-          </cell>
-          <cell r="D600">
-            <v>136429.5</v>
-          </cell>
-        </row>
-        <row r="601">
-          <cell r="A601">
-            <v>3668</v>
-          </cell>
-          <cell r="C601">
-            <v>21458383.800000001</v>
-          </cell>
-          <cell r="D601">
-            <v>136798.20000000001</v>
-          </cell>
-        </row>
-        <row r="602">
-          <cell r="A602">
-            <v>3668.5</v>
-          </cell>
-          <cell r="C602">
-            <v>21526875.07</v>
-          </cell>
-          <cell r="D602">
-            <v>137166.9</v>
-          </cell>
-        </row>
-        <row r="603">
-          <cell r="A603">
-            <v>3669</v>
-          </cell>
-          <cell r="C603">
-            <v>21595550.699999999</v>
-          </cell>
-          <cell r="D603">
-            <v>137535.6</v>
-          </cell>
-        </row>
-        <row r="604">
-          <cell r="A604">
-            <v>3669.5</v>
-          </cell>
-          <cell r="C604">
-            <v>21664410.670000002</v>
-          </cell>
-          <cell r="D604">
-            <v>137904.29999999999</v>
-          </cell>
-        </row>
-        <row r="605">
-          <cell r="A605">
-            <v>3670</v>
-          </cell>
-          <cell r="C605">
-            <v>21733455</v>
-          </cell>
-          <cell r="D605">
-            <v>138273</v>
-          </cell>
-        </row>
-        <row r="606">
-          <cell r="A606">
-            <v>3670.5</v>
-          </cell>
-          <cell r="C606">
-            <v>21802683.670000002</v>
-          </cell>
-          <cell r="D606">
-            <v>138641.70000000001</v>
-          </cell>
-        </row>
-        <row r="607">
-          <cell r="A607">
-            <v>3671</v>
-          </cell>
-          <cell r="C607">
-            <v>21872096.699999999</v>
-          </cell>
-          <cell r="D607">
-            <v>139010.4</v>
-          </cell>
-        </row>
-        <row r="608">
-          <cell r="A608">
-            <v>3671.5</v>
-          </cell>
-          <cell r="C608">
-            <v>21941694.07</v>
-          </cell>
-          <cell r="D608">
-            <v>139379.1</v>
-          </cell>
-        </row>
-        <row r="609">
-          <cell r="A609">
-            <v>3672</v>
-          </cell>
-          <cell r="C609">
-            <v>22011475.800000001</v>
-          </cell>
-          <cell r="D609">
-            <v>139747.79999999999</v>
-          </cell>
-        </row>
-        <row r="610">
-          <cell r="A610">
-            <v>3672.5</v>
-          </cell>
-          <cell r="C610">
-            <v>22081441.870000001</v>
-          </cell>
-          <cell r="D610">
-            <v>140116.5</v>
-          </cell>
-        </row>
-        <row r="611">
-          <cell r="A611">
-            <v>3673</v>
-          </cell>
-          <cell r="C611">
-            <v>22151592.300000001</v>
-          </cell>
-          <cell r="D611">
-            <v>140485.20000000001</v>
-          </cell>
-        </row>
-        <row r="612">
-          <cell r="A612">
-            <v>3673.5</v>
-          </cell>
-          <cell r="C612">
-            <v>22221927.07</v>
-          </cell>
-          <cell r="D612">
-            <v>140853.9</v>
-          </cell>
-        </row>
-        <row r="613">
-          <cell r="A613">
-            <v>3674</v>
-          </cell>
-          <cell r="C613">
-            <v>22292446.199999999</v>
-          </cell>
-          <cell r="D613">
-            <v>141222.6</v>
-          </cell>
-        </row>
-        <row r="614">
-          <cell r="A614">
-            <v>3674.5</v>
-          </cell>
-          <cell r="C614">
-            <v>22363149.670000002</v>
-          </cell>
-          <cell r="D614">
-            <v>141591.29999999999</v>
-          </cell>
-        </row>
-        <row r="615">
-          <cell r="A615">
-            <v>3675</v>
-          </cell>
-          <cell r="C615">
-            <v>22434037.5</v>
-          </cell>
-          <cell r="D615">
-            <v>141960</v>
-          </cell>
-        </row>
-        <row r="616">
-          <cell r="A616">
-            <v>3675.5</v>
-          </cell>
-          <cell r="C616">
-            <v>22505109.670000002</v>
-          </cell>
-          <cell r="D616">
-            <v>142328.70000000001</v>
-          </cell>
-        </row>
-        <row r="617">
-          <cell r="A617">
-            <v>3676</v>
-          </cell>
-          <cell r="C617">
-            <v>22576366.199999999</v>
-          </cell>
-          <cell r="D617">
-            <v>142697.4</v>
-          </cell>
-        </row>
-        <row r="618">
-          <cell r="A618">
-            <v>3676.5</v>
-          </cell>
-          <cell r="C618">
-            <v>22647807.07</v>
-          </cell>
-          <cell r="D618">
-            <v>143066.1</v>
-          </cell>
-        </row>
-        <row r="619">
-          <cell r="A619">
-            <v>3677</v>
-          </cell>
-          <cell r="C619">
-            <v>22719432.300000001</v>
-          </cell>
-          <cell r="D619">
-            <v>143434.79999999999</v>
-          </cell>
-        </row>
-        <row r="620">
-          <cell r="A620">
-            <v>3677.5</v>
-          </cell>
-          <cell r="C620">
-            <v>22791241.870000001</v>
-          </cell>
-          <cell r="D620">
-            <v>143803.5</v>
-          </cell>
-        </row>
-        <row r="621">
-          <cell r="A621">
-            <v>3678</v>
-          </cell>
-          <cell r="C621">
-            <v>22863235.800000001</v>
-          </cell>
-          <cell r="D621">
-            <v>144172.20000000001</v>
-          </cell>
-        </row>
-        <row r="622">
-          <cell r="A622">
-            <v>3678.5</v>
-          </cell>
-          <cell r="C622">
-            <v>22935414.07</v>
-          </cell>
-          <cell r="D622">
-            <v>144540.9</v>
-          </cell>
-        </row>
-        <row r="623">
-          <cell r="A623">
-            <v>3679</v>
-          </cell>
-          <cell r="C623">
-            <v>23007776.699999999</v>
-          </cell>
-          <cell r="D623">
-            <v>144909.6</v>
-          </cell>
-        </row>
-        <row r="624">
-          <cell r="A624">
-            <v>3679.5</v>
-          </cell>
-          <cell r="C624">
-            <v>23080323.670000002</v>
-          </cell>
-          <cell r="D624">
-            <v>145278.29999999999</v>
-          </cell>
-        </row>
-        <row r="625">
-          <cell r="A625">
-            <v>3680</v>
-          </cell>
-          <cell r="C625">
-            <v>23153055</v>
-          </cell>
-          <cell r="D625">
-            <v>145647</v>
-          </cell>
-        </row>
-        <row r="626">
-          <cell r="A626">
-            <v>3680.5</v>
-          </cell>
-          <cell r="C626">
-            <v>23225973.109999999</v>
-          </cell>
-          <cell r="D626">
-            <v>146025.42000000001</v>
-          </cell>
-        </row>
-        <row r="627">
-          <cell r="A627">
-            <v>3681</v>
-          </cell>
-          <cell r="C627">
-            <v>23299080.420000002</v>
-          </cell>
-          <cell r="D627">
-            <v>146403.85</v>
-          </cell>
-        </row>
-        <row r="628">
-          <cell r="A628">
-            <v>3681.5</v>
-          </cell>
-          <cell r="C628">
-            <v>23372376.960000001</v>
-          </cell>
-          <cell r="D628">
-            <v>146782.26999999999</v>
-          </cell>
-        </row>
-        <row r="629">
-          <cell r="A629">
-            <v>3682</v>
-          </cell>
-          <cell r="C629">
-            <v>23445862.699999999</v>
-          </cell>
-          <cell r="D629">
-            <v>147160.70000000001</v>
-          </cell>
-        </row>
-        <row r="630">
-          <cell r="A630">
-            <v>3682.5</v>
-          </cell>
-          <cell r="C630">
-            <v>23519537.66</v>
-          </cell>
-          <cell r="D630">
-            <v>147539.12</v>
-          </cell>
-        </row>
-        <row r="631">
-          <cell r="A631">
-            <v>3683</v>
-          </cell>
-          <cell r="C631">
-            <v>23593401.82</v>
-          </cell>
-          <cell r="D631">
-            <v>147917.54999999999</v>
-          </cell>
-        </row>
-        <row r="632">
-          <cell r="A632">
-            <v>3683.5</v>
-          </cell>
-          <cell r="C632">
-            <v>23667455.210000001</v>
-          </cell>
-          <cell r="D632">
-            <v>148295.97</v>
-          </cell>
-        </row>
-        <row r="633">
-          <cell r="A633">
-            <v>3684</v>
-          </cell>
-          <cell r="C633">
-            <v>23741697.800000001</v>
-          </cell>
-          <cell r="D633">
-            <v>148674.4</v>
-          </cell>
-        </row>
-        <row r="634">
-          <cell r="A634">
-            <v>3684.5</v>
-          </cell>
-          <cell r="C634">
-            <v>23816129.609999999</v>
-          </cell>
-          <cell r="D634">
-            <v>149052.82</v>
-          </cell>
-        </row>
-        <row r="635">
-          <cell r="A635">
-            <v>3685</v>
-          </cell>
-          <cell r="C635">
-            <v>23890750.620000001</v>
-          </cell>
-          <cell r="D635">
-            <v>149431.25</v>
-          </cell>
-        </row>
-        <row r="636">
-          <cell r="A636">
-            <v>3685.5</v>
-          </cell>
-          <cell r="C636">
-            <v>23965560.859999999</v>
-          </cell>
-          <cell r="D636">
-            <v>149809.67000000001</v>
-          </cell>
-        </row>
-        <row r="637">
-          <cell r="A637">
-            <v>3686</v>
-          </cell>
-          <cell r="C637">
-            <v>24040560.300000001</v>
-          </cell>
-          <cell r="D637">
-            <v>150188.1</v>
-          </cell>
-        </row>
-        <row r="638">
-          <cell r="A638">
-            <v>3686.5</v>
-          </cell>
-          <cell r="C638">
-            <v>24115748.960000001</v>
-          </cell>
-          <cell r="D638">
-            <v>150566.51999999999</v>
-          </cell>
-        </row>
-        <row r="639">
-          <cell r="A639">
-            <v>3687</v>
-          </cell>
-          <cell r="C639">
-            <v>24191126.82</v>
-          </cell>
-          <cell r="D639">
-            <v>150944.95000000001</v>
-          </cell>
-        </row>
-        <row r="640">
-          <cell r="A640">
-            <v>3687.5</v>
-          </cell>
-          <cell r="C640">
-            <v>24266693.91</v>
-          </cell>
-          <cell r="D640">
-            <v>151323.37</v>
-          </cell>
-        </row>
-        <row r="641">
-          <cell r="A641">
-            <v>3688</v>
-          </cell>
-          <cell r="C641">
-            <v>24342450.199999999</v>
-          </cell>
-          <cell r="D641">
-            <v>151701.79999999999</v>
-          </cell>
-        </row>
-        <row r="642">
-          <cell r="A642">
-            <v>3688.5</v>
-          </cell>
-          <cell r="C642">
-            <v>24418395.710000001</v>
-          </cell>
-          <cell r="D642">
-            <v>152080.22</v>
-          </cell>
-        </row>
-        <row r="643">
-          <cell r="A643">
-            <v>3689</v>
-          </cell>
-          <cell r="C643">
-            <v>24494530.420000002</v>
-          </cell>
-          <cell r="D643">
-            <v>152458.65</v>
-          </cell>
-        </row>
-        <row r="644">
-          <cell r="A644">
-            <v>3689.5</v>
-          </cell>
-          <cell r="C644">
-            <v>24570854.359999999</v>
-          </cell>
-          <cell r="D644">
-            <v>152837.07</v>
-          </cell>
-        </row>
-        <row r="645">
-          <cell r="A645">
-            <v>3690</v>
-          </cell>
-          <cell r="C645">
-            <v>24647367.5</v>
-          </cell>
-          <cell r="D645">
-            <v>153215.5</v>
-          </cell>
-        </row>
-        <row r="646">
-          <cell r="A646">
-            <v>3690.5</v>
-          </cell>
-          <cell r="C646">
-            <v>24724069.859999999</v>
-          </cell>
-          <cell r="D646">
-            <v>153593.92000000001</v>
-          </cell>
-        </row>
-        <row r="647">
-          <cell r="A647">
-            <v>3691</v>
-          </cell>
-          <cell r="C647">
-            <v>24800961.420000002</v>
-          </cell>
-          <cell r="D647">
-            <v>153972.35</v>
-          </cell>
-        </row>
-        <row r="648">
-          <cell r="A648">
-            <v>3691.5</v>
-          </cell>
-          <cell r="C648">
-            <v>24878042.210000001</v>
-          </cell>
-          <cell r="D648">
-            <v>154350.76999999999</v>
-          </cell>
-        </row>
-        <row r="649">
-          <cell r="A649">
-            <v>3692</v>
-          </cell>
-          <cell r="C649">
-            <v>24955312.199999999</v>
-          </cell>
-          <cell r="D649">
-            <v>154729.20000000001</v>
-          </cell>
-        </row>
-        <row r="650">
-          <cell r="A650">
-            <v>3692.5</v>
-          </cell>
-          <cell r="C650">
-            <v>25032771.41</v>
-          </cell>
-          <cell r="D650">
-            <v>155107.62</v>
-          </cell>
-        </row>
-        <row r="651">
-          <cell r="A651">
-            <v>3693</v>
-          </cell>
-          <cell r="C651">
-            <v>25110419.82</v>
-          </cell>
-          <cell r="D651">
-            <v>155486.04999999999</v>
-          </cell>
-        </row>
-        <row r="652">
-          <cell r="A652">
-            <v>3693.5</v>
-          </cell>
-          <cell r="C652">
-            <v>25188257.460000001</v>
-          </cell>
-          <cell r="D652">
-            <v>155864.47</v>
-          </cell>
-        </row>
-        <row r="653">
-          <cell r="A653">
-            <v>3694</v>
-          </cell>
-          <cell r="C653">
-            <v>25266284.300000001</v>
-          </cell>
-          <cell r="D653">
-            <v>156242.9</v>
-          </cell>
-        </row>
-        <row r="654">
-          <cell r="A654">
-            <v>3694.5</v>
-          </cell>
-          <cell r="C654">
-            <v>25344500.359999999</v>
-          </cell>
-          <cell r="D654">
-            <v>156621.32</v>
-          </cell>
-        </row>
-        <row r="655">
-          <cell r="A655">
-            <v>3695</v>
-          </cell>
-          <cell r="C655">
-            <v>25422905.620000001</v>
-          </cell>
-          <cell r="D655">
-            <v>156999.75</v>
-          </cell>
-        </row>
-        <row r="656">
-          <cell r="A656">
-            <v>3695.5</v>
-          </cell>
-          <cell r="C656">
-            <v>25501500.109999999</v>
-          </cell>
-          <cell r="D656">
-            <v>157378.17000000001</v>
-          </cell>
-        </row>
-        <row r="657">
-          <cell r="A657">
-            <v>3696</v>
-          </cell>
-          <cell r="C657">
-            <v>25580283.800000001</v>
-          </cell>
-          <cell r="D657">
-            <v>157756.6</v>
-          </cell>
-        </row>
-        <row r="658">
-          <cell r="A658">
-            <v>3696.5</v>
-          </cell>
-          <cell r="C658">
-            <v>25659256.710000001</v>
-          </cell>
-          <cell r="D658">
-            <v>158135.01999999999</v>
-          </cell>
-        </row>
-        <row r="659">
-          <cell r="A659">
-            <v>3697</v>
-          </cell>
-          <cell r="C659">
-            <v>25738418.82</v>
-          </cell>
-          <cell r="D659">
-            <v>158513.45000000001</v>
-          </cell>
-        </row>
-        <row r="660">
-          <cell r="A660">
-            <v>3697.5</v>
-          </cell>
-          <cell r="C660">
-            <v>25817770.16</v>
-          </cell>
-          <cell r="D660">
-            <v>158891.87</v>
-          </cell>
-        </row>
-        <row r="661">
-          <cell r="A661">
-            <v>3698</v>
-          </cell>
-          <cell r="C661">
-            <v>25897310.699999999</v>
-          </cell>
-          <cell r="D661">
-            <v>159270.29999999999</v>
-          </cell>
-        </row>
-        <row r="662">
-          <cell r="A662">
-            <v>3698.5</v>
-          </cell>
-          <cell r="C662">
-            <v>25977040.460000001</v>
-          </cell>
-          <cell r="D662">
-            <v>159648.72</v>
-          </cell>
-        </row>
-        <row r="663">
-          <cell r="A663">
-            <v>3699</v>
-          </cell>
-          <cell r="C663">
-            <v>26056959.420000002</v>
-          </cell>
-          <cell r="D663">
-            <v>160027.15</v>
-          </cell>
-        </row>
-        <row r="664">
-          <cell r="A664">
-            <v>3699.5</v>
-          </cell>
-          <cell r="C664">
-            <v>26137067.609999999</v>
-          </cell>
-          <cell r="D664">
-            <v>160405.57</v>
-          </cell>
-        </row>
-        <row r="665">
-          <cell r="A665">
-            <v>3700</v>
-          </cell>
-          <cell r="C665">
-            <v>26217365</v>
-          </cell>
-          <cell r="D665">
-            <v>160784</v>
-          </cell>
-        </row>
-        <row r="666">
-          <cell r="A666">
-            <v>3700.5</v>
-          </cell>
-          <cell r="C666">
-            <v>26297858.780000001</v>
-          </cell>
-          <cell r="D666">
-            <v>161191.12</v>
-          </cell>
-        </row>
-        <row r="667">
-          <cell r="A667">
-            <v>3701</v>
-          </cell>
-          <cell r="C667">
-            <v>26378556.120000001</v>
-          </cell>
-          <cell r="D667">
-            <v>161598.25</v>
-          </cell>
-        </row>
-        <row r="668">
-          <cell r="A668">
-            <v>3701.5</v>
-          </cell>
-          <cell r="C668">
-            <v>26459457.030000001</v>
-          </cell>
-          <cell r="D668">
-            <v>162005.37</v>
-          </cell>
-        </row>
-        <row r="669">
-          <cell r="A669">
-            <v>3702</v>
-          </cell>
-          <cell r="C669">
-            <v>26540561.5</v>
-          </cell>
-          <cell r="D669">
-            <v>162412.5</v>
-          </cell>
-        </row>
-        <row r="670">
-          <cell r="A670">
-            <v>3702.5</v>
-          </cell>
-          <cell r="C670">
-            <v>26621869.530000001</v>
-          </cell>
-          <cell r="D670">
-            <v>162819.62</v>
-          </cell>
-        </row>
-        <row r="671">
-          <cell r="A671">
-            <v>3703</v>
-          </cell>
-          <cell r="C671">
-            <v>26703381.120000001</v>
-          </cell>
-          <cell r="D671">
-            <v>163226.75</v>
-          </cell>
-        </row>
-        <row r="672">
-          <cell r="A672">
-            <v>3703.5</v>
-          </cell>
-          <cell r="C672">
-            <v>26785096.280000001</v>
-          </cell>
-          <cell r="D672">
-            <v>163633.87</v>
-          </cell>
-        </row>
-        <row r="673">
-          <cell r="A673">
-            <v>3704</v>
-          </cell>
-          <cell r="C673">
-            <v>26867015</v>
-          </cell>
-          <cell r="D673">
-            <v>164041</v>
-          </cell>
-        </row>
-        <row r="674">
-          <cell r="A674">
-            <v>3704.5</v>
-          </cell>
-          <cell r="C674">
-            <v>26949137.280000001</v>
-          </cell>
-          <cell r="D674">
-            <v>164448.12</v>
-          </cell>
-        </row>
-        <row r="675">
-          <cell r="A675">
-            <v>3705</v>
-          </cell>
-          <cell r="C675">
-            <v>27031463.120000001</v>
-          </cell>
-          <cell r="D675">
-            <v>164855.25</v>
-          </cell>
-        </row>
-        <row r="676">
-          <cell r="A676">
-            <v>3705.5</v>
-          </cell>
-          <cell r="C676">
-            <v>27113992.530000001</v>
-          </cell>
-          <cell r="D676">
-            <v>165262.37</v>
-          </cell>
-        </row>
-        <row r="677">
-          <cell r="A677">
-            <v>3706</v>
-          </cell>
-          <cell r="C677">
-            <v>27196725.5</v>
-          </cell>
-          <cell r="D677">
-            <v>165669.5</v>
-          </cell>
-        </row>
-        <row r="678">
-          <cell r="A678">
-            <v>3706.5</v>
-          </cell>
-          <cell r="C678">
-            <v>27279662.030000001</v>
-          </cell>
-          <cell r="D678">
-            <v>166076.62</v>
-          </cell>
-        </row>
-        <row r="679">
-          <cell r="A679">
-            <v>3707</v>
-          </cell>
-          <cell r="C679">
-            <v>27362802.120000001</v>
-          </cell>
-          <cell r="D679">
-            <v>166483.75</v>
-          </cell>
-        </row>
-        <row r="680">
-          <cell r="A680">
-            <v>3707.5</v>
-          </cell>
-          <cell r="C680">
-            <v>27446145.780000001</v>
-          </cell>
-          <cell r="D680">
-            <v>166890.87</v>
-          </cell>
-        </row>
-        <row r="681">
-          <cell r="A681">
-            <v>3708</v>
-          </cell>
-          <cell r="C681">
-            <v>27529693</v>
-          </cell>
-          <cell r="D681">
-            <v>167298</v>
-          </cell>
-        </row>
-        <row r="682">
-          <cell r="A682">
-            <v>3708.5</v>
-          </cell>
-          <cell r="C682">
-            <v>27613443.780000001</v>
-          </cell>
-          <cell r="D682">
-            <v>167705.12</v>
-          </cell>
-        </row>
-        <row r="683">
-          <cell r="A683">
-            <v>3709</v>
-          </cell>
-          <cell r="C683">
-            <v>27697398.120000001</v>
-          </cell>
-          <cell r="D683">
-            <v>168112.25</v>
-          </cell>
-        </row>
-        <row r="684">
-          <cell r="A684">
-            <v>3709.5</v>
-          </cell>
-          <cell r="C684">
-            <v>27781556.030000001</v>
-          </cell>
-          <cell r="D684">
-            <v>168519.37</v>
-          </cell>
-        </row>
-        <row r="685">
-          <cell r="A685">
-            <v>3710</v>
-          </cell>
-          <cell r="C685">
-            <v>27865917.5</v>
-          </cell>
-          <cell r="D685">
-            <v>168926.5</v>
-          </cell>
-        </row>
-        <row r="686">
-          <cell r="A686">
-            <v>3710.5</v>
-          </cell>
-          <cell r="C686">
-            <v>27950482.530000001</v>
-          </cell>
-          <cell r="D686">
-            <v>169333.62</v>
-          </cell>
-        </row>
-        <row r="687">
-          <cell r="A687">
-            <v>3711</v>
-          </cell>
-          <cell r="C687">
-            <v>28035251.120000001</v>
-          </cell>
-          <cell r="D687">
-            <v>169740.75</v>
-          </cell>
-        </row>
-        <row r="688">
-          <cell r="A688">
-            <v>3711.5</v>
-          </cell>
-          <cell r="C688">
-            <v>28120223.280000001</v>
-          </cell>
-          <cell r="D688">
-            <v>170147.87</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -17112,15 +9550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EB4D26-A6DA-412C-826B-1D020E34670B}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17158,13 +9596,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -50242,8 +42688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31BAC20-5E10-43D3-8CB2-3DFC89182265}">
   <dimension ref="A1:G344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/LakePowellNewBathymetry/Lake_Powell_Area_Capacity_Table_Report_FINAL.xlsx
+++ b/LakePowellNewBathymetry/Lake_Powell_Area_Capacity_Table_Report_FINAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\LakePowellNewBathymetry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498A0F5A-B356-4E08-9CA6-DA05BFD1A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A5D05-83C9-45DF-992C-B3D3065A43D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-1800" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,7 +322,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -429,9 +429,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -450,6 +447,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -25525,8 +25528,8 @@
       <c r="J4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
@@ -42733,143 +42736,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770C52C0-5EB3-44BC-B2AD-268DDE97C314}">
-  <dimension ref="C13:E22"/>
+  <dimension ref="C13:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.69921875" style="42" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="41" customWidth="1"/>
     <col min="5" max="5" width="8.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="13" spans="3:5" ht="39" x14ac:dyDescent="0.3">
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="44">
+      <c r="C14" s="43">
         <v>3370</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="42">
         <f>VLOOKUP(C14,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <f>D14/$D$22</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="44">
+      <c r="C15" s="43">
         <v>3490</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="42">
         <f>VLOOKUP(C15,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>3.7427141499999999</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <f t="shared" ref="E15:E22" si="0">D15/$D$22</f>
         <v>0.16053622836851369</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="44">
+      <c r="C16" s="43">
         <v>3500</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="42">
         <f>VLOOKUP(C16,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>4.2158051219999999</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <f t="shared" si="0"/>
         <v>0.180828518208515</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="44">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="43">
         <v>3525</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="42">
         <f>VLOOKUP(C17,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>5.5449229090000003</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <f t="shared" si="0"/>
         <v>0.23783836401319275</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="44">
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="43">
         <v>3535</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <f>VLOOKUP(C18,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>6.138470743000001</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <f t="shared" si="0"/>
         <v>0.26329740972381982</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="44">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="43">
         <v>3550</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="42">
         <f>VLOOKUP(C19,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>7.0981696620000001</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <f t="shared" si="0"/>
         <v>0.30446177297758303</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="44">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="43">
         <v>3570</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="42">
         <f>VLOOKUP(C20,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>8.518031302999999</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <f t="shared" si="0"/>
         <v>0.36536389467749125</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="44">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="43">
         <v>3600</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="42">
         <f>VLOOKUP(C21,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>10.991147309999999</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <f t="shared" si="0"/>
         <v>0.47144325317767982</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="44">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="43">
         <v>3700</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="42">
         <f>VLOOKUP(C22,BathymetryCompare!$A$4:$C$344,2)</f>
         <v>23.313828835000002</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -42903,18 +42907,18 @@
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="40">
+      <c r="B2" s="48">
         <v>2017</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="52" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
